--- a/Data/Integrated Implants - 3223443793/3223443793.xlsx
+++ b/Data/Integrated Implants - 3223443793/3223443793.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\RimWorld\Mods\RMK\Data\Integrated Implants - 3223443793\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327BBF97-D936-442D-886D-D2FAC80A0332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5738BB4C-F3C2-4DA4-AA38-858849476E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="38380" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main_240511" sheetId="1" r:id="rId1"/>
-    <sheet name="240430" sheetId="3" r:id="rId2"/>
+    <sheet name="Main_240523" sheetId="6" r:id="rId1"/>
+    <sheet name="240511" sheetId="1" r:id="rId2"/>
+    <sheet name="240430" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4909" uniqueCount="2297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4910" uniqueCount="2298">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -6942,6 +6943,22 @@
   </si>
   <si>
     <t>신경젤을 분할하여 연결해주는 고리를 사용해 추가로 인공 팔을 설치할 수 있습니다. 초월공학 팔과 다리는 즉시 완벽하게 제어할 수 있지만, 사람이 직접 제작한 팔과 다리는 조정 시간이 필요합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Raw XML </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일 그대로 적용됨</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6949,7 +6966,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -6966,6 +6983,13 @@
       <sz val="8"/>
       <name val="돋움"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -7299,14 +7323,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6A1482-14E8-4B41-9251-D3DF627A54C8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15">
+      <c r="A1" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F686"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="71.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
@@ -7317,7 +7362,7 @@
     <col min="7" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7337,7 +7382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -7354,7 +7399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -7371,7 +7416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -7388,7 +7433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -7405,7 +7450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -7422,7 +7467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -7439,7 +7484,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -7456,7 +7501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -7473,7 +7518,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -7490,7 +7535,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -7507,7 +7552,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -7522,7 +7567,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -7537,7 +7582,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -7552,7 +7597,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -7567,7 +7612,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -7582,7 +7627,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -7597,7 +7642,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
@@ -7612,7 +7657,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
@@ -7627,7 +7672,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -7642,7 +7687,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>68</v>
       </c>
@@ -7657,7 +7702,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
@@ -7672,7 +7717,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
@@ -7687,7 +7732,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>77</v>
       </c>
@@ -7702,7 +7747,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>80</v>
       </c>
@@ -7717,7 +7762,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
@@ -7732,7 +7777,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>86</v>
       </c>
@@ -7747,7 +7792,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>89</v>
       </c>
@@ -7762,7 +7807,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>92</v>
       </c>
@@ -7777,7 +7822,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>95</v>
       </c>
@@ -7792,7 +7837,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>98</v>
       </c>
@@ -7807,7 +7852,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>99</v>
       </c>
@@ -7822,7 +7867,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>101</v>
       </c>
@@ -7839,7 +7884,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>106</v>
       </c>
@@ -7856,7 +7901,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>110</v>
       </c>
@@ -7873,7 +7918,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>114</v>
       </c>
@@ -7890,7 +7935,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>118</v>
       </c>
@@ -7907,7 +7952,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>123</v>
       </c>
@@ -7924,7 +7969,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>127</v>
       </c>
@@ -7939,7 +7984,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>130</v>
       </c>
@@ -7954,7 +7999,7 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>133</v>
       </c>
@@ -7969,7 +8014,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>136</v>
       </c>
@@ -7984,7 +8029,7 @@
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>139</v>
       </c>
@@ -8001,7 +8046,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>144</v>
       </c>
@@ -8016,7 +8061,7 @@
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>146</v>
       </c>
@@ -8033,7 +8078,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>150</v>
       </c>
@@ -8050,7 +8095,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>154</v>
       </c>
@@ -8067,7 +8112,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>158</v>
       </c>
@@ -8084,7 +8129,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>159</v>
       </c>
@@ -8101,7 +8146,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>162</v>
       </c>
@@ -8118,7 +8163,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>167</v>
       </c>
@@ -8135,7 +8180,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>171</v>
       </c>
@@ -8152,7 +8197,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>175</v>
       </c>
@@ -8169,7 +8214,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>179</v>
       </c>
@@ -8186,7 +8231,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>183</v>
       </c>
@@ -8203,7 +8248,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
         <v>187</v>
       </c>
@@ -8220,7 +8265,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
         <v>191</v>
       </c>
@@ -8237,7 +8282,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>194</v>
       </c>
@@ -8254,7 +8299,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
         <v>198</v>
       </c>
@@ -8271,7 +8316,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>199</v>
       </c>
@@ -8288,7 +8333,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
         <v>202</v>
       </c>
@@ -8305,7 +8350,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
         <v>206</v>
       </c>
@@ -8322,7 +8367,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
         <v>210</v>
       </c>
@@ -8339,7 +8384,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
         <v>214</v>
       </c>
@@ -8356,7 +8401,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
         <v>218</v>
       </c>
@@ -8373,7 +8418,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
         <v>222</v>
       </c>
@@ -8390,7 +8435,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
         <v>226</v>
       </c>
@@ -8407,7 +8452,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
         <v>230</v>
       </c>
@@ -8424,7 +8469,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
         <v>233</v>
       </c>
@@ -8441,7 +8486,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
         <v>237</v>
       </c>
@@ -8458,7 +8503,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
         <v>238</v>
       </c>
@@ -8475,7 +8520,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
         <v>241</v>
       </c>
@@ -8492,7 +8537,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
         <v>245</v>
       </c>
@@ -8509,7 +8554,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
         <v>249</v>
       </c>
@@ -8526,7 +8571,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
         <v>253</v>
       </c>
@@ -8543,7 +8588,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
         <v>257</v>
       </c>
@@ -8560,7 +8605,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
         <v>261</v>
       </c>
@@ -8577,7 +8622,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
         <v>265</v>
       </c>
@@ -8594,7 +8639,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
         <v>269</v>
       </c>
@@ -8611,7 +8656,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
         <v>272</v>
       </c>
@@ -8628,7 +8673,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
         <v>276</v>
       </c>
@@ -8645,7 +8690,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
         <v>277</v>
       </c>
@@ -8662,7 +8707,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
         <v>280</v>
       </c>
@@ -8679,7 +8724,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
         <v>284</v>
       </c>
@@ -8696,7 +8741,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
         <v>288</v>
       </c>
@@ -8713,7 +8758,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
         <v>292</v>
       </c>
@@ -8730,7 +8775,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
         <v>296</v>
       </c>
@@ -8747,7 +8792,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
         <v>300</v>
       </c>
@@ -8764,7 +8809,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
         <v>304</v>
       </c>
@@ -8781,7 +8826,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
         <v>308</v>
       </c>
@@ -8798,7 +8843,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
         <v>311</v>
       </c>
@@ -8815,7 +8860,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
         <v>315</v>
       </c>
@@ -8832,7 +8877,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
         <v>316</v>
       </c>
@@ -8849,7 +8894,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
         <v>319</v>
       </c>
@@ -8866,7 +8911,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
         <v>323</v>
       </c>
@@ -8883,7 +8928,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
         <v>327</v>
       </c>
@@ -8900,7 +8945,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
         <v>331</v>
       </c>
@@ -8917,7 +8962,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
         <v>335</v>
       </c>
@@ -8934,7 +8979,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
         <v>339</v>
       </c>
@@ -8951,7 +8996,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
         <v>343</v>
       </c>
@@ -8968,7 +9013,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
         <v>347</v>
       </c>
@@ -8985,7 +9030,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
         <v>350</v>
       </c>
@@ -9002,7 +9047,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
         <v>354</v>
       </c>
@@ -9019,7 +9064,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
         <v>355</v>
       </c>
@@ -9036,7 +9081,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
         <v>358</v>
       </c>
@@ -9053,7 +9098,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
         <v>362</v>
       </c>
@@ -9070,7 +9115,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
         <v>366</v>
       </c>
@@ -9087,7 +9132,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
         <v>370</v>
       </c>
@@ -9104,7 +9149,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
         <v>374</v>
       </c>
@@ -9121,7 +9166,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
         <v>378</v>
       </c>
@@ -9138,7 +9183,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
         <v>382</v>
       </c>
@@ -9155,7 +9200,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
         <v>386</v>
       </c>
@@ -9172,7 +9217,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
         <v>389</v>
       </c>
@@ -9189,7 +9234,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
         <v>393</v>
       </c>
@@ -9206,7 +9251,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
         <v>394</v>
       </c>
@@ -9223,7 +9268,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
         <v>397</v>
       </c>
@@ -9240,7 +9285,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
         <v>401</v>
       </c>
@@ -9257,7 +9302,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
         <v>405</v>
       </c>
@@ -9274,7 +9319,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
         <v>409</v>
       </c>
@@ -9291,7 +9336,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
         <v>413</v>
       </c>
@@ -9308,7 +9353,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
         <v>417</v>
       </c>
@@ -9325,7 +9370,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
         <v>421</v>
       </c>
@@ -9342,7 +9387,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
         <v>425</v>
       </c>
@@ -9359,7 +9404,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6">
       <c r="A124" s="1" t="s">
         <v>428</v>
       </c>
@@ -9376,7 +9421,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6">
       <c r="A125" s="1" t="s">
         <v>432</v>
       </c>
@@ -9393,7 +9438,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6">
       <c r="A126" s="1" t="s">
         <v>433</v>
       </c>
@@ -9410,7 +9455,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6">
       <c r="A127" s="1" t="s">
         <v>436</v>
       </c>
@@ -9427,7 +9472,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6">
       <c r="A128" s="1" t="s">
         <v>440</v>
       </c>
@@ -9444,7 +9489,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6">
       <c r="A129" s="1" t="s">
         <v>444</v>
       </c>
@@ -9461,7 +9506,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6">
       <c r="A130" s="1" t="s">
         <v>448</v>
       </c>
@@ -9478,7 +9523,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6">
       <c r="A131" s="1" t="s">
         <v>452</v>
       </c>
@@ -9495,7 +9540,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6">
       <c r="A132" s="1" t="s">
         <v>456</v>
       </c>
@@ -9512,7 +9557,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6">
       <c r="A133" s="1" t="s">
         <v>460</v>
       </c>
@@ -9529,7 +9574,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6">
       <c r="A134" s="1" t="s">
         <v>464</v>
       </c>
@@ -9546,7 +9591,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6">
       <c r="A135" s="1" t="s">
         <v>468</v>
       </c>
@@ -9563,7 +9608,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
         <v>472</v>
       </c>
@@ -9580,7 +9625,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6">
       <c r="A137" s="1" t="s">
         <v>475</v>
       </c>
@@ -9597,7 +9642,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6">
       <c r="A138" s="1" t="s">
         <v>479</v>
       </c>
@@ -9614,7 +9659,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6">
       <c r="A139" s="1" t="s">
         <v>480</v>
       </c>
@@ -9631,7 +9676,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6">
       <c r="A140" s="1" t="s">
         <v>483</v>
       </c>
@@ -9648,7 +9693,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
         <v>487</v>
       </c>
@@ -9665,7 +9710,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6">
       <c r="A142" s="1" t="s">
         <v>491</v>
       </c>
@@ -9682,7 +9727,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6">
       <c r="A143" s="1" t="s">
         <v>495</v>
       </c>
@@ -9699,7 +9744,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6">
       <c r="A144" s="1" t="s">
         <v>499</v>
       </c>
@@ -9716,7 +9761,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6">
       <c r="A145" s="1" t="s">
         <v>503</v>
       </c>
@@ -9733,7 +9778,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6">
       <c r="A146" s="1" t="s">
         <v>507</v>
       </c>
@@ -9750,7 +9795,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
         <v>511</v>
       </c>
@@ -9767,7 +9812,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
         <v>514</v>
       </c>
@@ -9784,7 +9829,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6">
       <c r="A149" s="1" t="s">
         <v>518</v>
       </c>
@@ -9801,7 +9846,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6">
       <c r="A150" s="1" t="s">
         <v>519</v>
       </c>
@@ -9818,7 +9863,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6">
       <c r="A151" s="1" t="s">
         <v>522</v>
       </c>
@@ -9835,7 +9880,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6">
       <c r="A152" s="1" t="s">
         <v>526</v>
       </c>
@@ -9852,7 +9897,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6">
       <c r="A153" s="1" t="s">
         <v>530</v>
       </c>
@@ -9869,7 +9914,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6">
       <c r="A154" s="1" t="s">
         <v>534</v>
       </c>
@@ -9886,7 +9931,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6">
       <c r="A155" s="1" t="s">
         <v>538</v>
       </c>
@@ -9903,7 +9948,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6">
       <c r="A156" s="1" t="s">
         <v>542</v>
       </c>
@@ -9920,7 +9965,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6">
       <c r="A157" s="1" t="s">
         <v>546</v>
       </c>
@@ -9937,7 +9982,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6">
       <c r="A158" s="1" t="s">
         <v>550</v>
       </c>
@@ -9954,7 +9999,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6">
       <c r="A159" s="1" t="s">
         <v>553</v>
       </c>
@@ -9971,7 +10016,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6">
       <c r="A160" s="1" t="s">
         <v>557</v>
       </c>
@@ -9988,7 +10033,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6">
       <c r="A161" s="1" t="s">
         <v>558</v>
       </c>
@@ -10005,7 +10050,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6">
       <c r="A162" s="1" t="s">
         <v>561</v>
       </c>
@@ -10022,7 +10067,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6">
       <c r="A163" s="1" t="s">
         <v>565</v>
       </c>
@@ -10039,7 +10084,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6">
       <c r="A164" s="1" t="s">
         <v>569</v>
       </c>
@@ -10056,7 +10101,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6">
       <c r="A165" s="1" t="s">
         <v>573</v>
       </c>
@@ -10073,7 +10118,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6">
       <c r="A166" s="1" t="s">
         <v>577</v>
       </c>
@@ -10090,7 +10135,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6">
       <c r="A167" s="1" t="s">
         <v>581</v>
       </c>
@@ -10107,7 +10152,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6">
       <c r="A168" s="1" t="s">
         <v>585</v>
       </c>
@@ -10124,7 +10169,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6">
       <c r="A169" s="1" t="s">
         <v>589</v>
       </c>
@@ -10141,7 +10186,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6">
       <c r="A170" s="1" t="s">
         <v>592</v>
       </c>
@@ -10158,7 +10203,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6">
       <c r="A171" s="1" t="s">
         <v>596</v>
       </c>
@@ -10175,7 +10220,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6">
       <c r="A172" s="1" t="s">
         <v>597</v>
       </c>
@@ -10192,7 +10237,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6">
       <c r="A173" s="1" t="s">
         <v>600</v>
       </c>
@@ -10209,7 +10254,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6">
       <c r="A174" s="1" t="s">
         <v>604</v>
       </c>
@@ -10226,7 +10271,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6">
       <c r="A175" s="1" t="s">
         <v>608</v>
       </c>
@@ -10243,7 +10288,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:6">
       <c r="A176" s="1" t="s">
         <v>612</v>
       </c>
@@ -10260,7 +10305,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:6">
       <c r="A177" s="1" t="s">
         <v>616</v>
       </c>
@@ -10277,7 +10322,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:6">
       <c r="A178" s="1" t="s">
         <v>620</v>
       </c>
@@ -10294,7 +10339,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:6">
       <c r="A179" s="1" t="s">
         <v>624</v>
       </c>
@@ -10311,7 +10356,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:6">
       <c r="A180" s="1" t="s">
         <v>628</v>
       </c>
@@ -10328,7 +10373,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:6">
       <c r="A181" s="1" t="s">
         <v>631</v>
       </c>
@@ -10345,7 +10390,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:6">
       <c r="A182" s="1" t="s">
         <v>635</v>
       </c>
@@ -10362,7 +10407,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6">
       <c r="A183" s="1" t="s">
         <v>636</v>
       </c>
@@ -10379,7 +10424,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:6">
       <c r="A184" s="1" t="s">
         <v>639</v>
       </c>
@@ -10396,7 +10441,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:6">
       <c r="A185" s="1" t="s">
         <v>643</v>
       </c>
@@ -10413,7 +10458,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:6">
       <c r="A186" s="1" t="s">
         <v>647</v>
       </c>
@@ -10430,7 +10475,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:6">
       <c r="A187" s="1" t="s">
         <v>651</v>
       </c>
@@ -10447,7 +10492,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:6">
       <c r="A188" s="1" t="s">
         <v>655</v>
       </c>
@@ -10464,7 +10509,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:6">
       <c r="A189" s="1" t="s">
         <v>659</v>
       </c>
@@ -10481,7 +10526,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:6">
       <c r="A190" s="1" t="s">
         <v>663</v>
       </c>
@@ -10498,7 +10543,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:6">
       <c r="A191" s="1" t="s">
         <v>666</v>
       </c>
@@ -10515,7 +10560,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:6">
       <c r="A192" s="1" t="s">
         <v>669</v>
       </c>
@@ -10532,7 +10577,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:6">
       <c r="A193" s="1" t="s">
         <v>672</v>
       </c>
@@ -10549,7 +10594,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:6">
       <c r="A194" s="1" t="s">
         <v>673</v>
       </c>
@@ -10566,7 +10611,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:6">
       <c r="A195" s="1" t="s">
         <v>675</v>
       </c>
@@ -10583,7 +10628,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:6">
       <c r="A196" s="1" t="s">
         <v>678</v>
       </c>
@@ -10600,7 +10645,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:6">
       <c r="A197" s="1" t="s">
         <v>681</v>
       </c>
@@ -10617,7 +10662,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:6">
       <c r="A198" s="1" t="s">
         <v>684</v>
       </c>
@@ -10634,7 +10679,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:6">
       <c r="A199" s="1" t="s">
         <v>687</v>
       </c>
@@ -10651,7 +10696,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:6">
       <c r="A200" s="1" t="s">
         <v>690</v>
       </c>
@@ -10668,7 +10713,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:6">
       <c r="A201" s="1" t="s">
         <v>693</v>
       </c>
@@ -10685,7 +10730,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:6">
       <c r="A202" s="1" t="s">
         <v>698</v>
       </c>
@@ -10702,7 +10747,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:6">
       <c r="A203" s="1" t="s">
         <v>702</v>
       </c>
@@ -10719,7 +10764,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:6">
       <c r="A204" s="1" t="s">
         <v>706</v>
       </c>
@@ -10736,7 +10781,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:6">
       <c r="A205" s="1" t="s">
         <v>710</v>
       </c>
@@ -10753,7 +10798,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:6">
       <c r="A206" s="1" t="s">
         <v>712</v>
       </c>
@@ -10770,7 +10815,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:6">
       <c r="A207" s="1" t="s">
         <v>713</v>
       </c>
@@ -10787,7 +10832,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:6">
       <c r="A208" s="1" t="s">
         <v>716</v>
       </c>
@@ -10804,7 +10849,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:6">
       <c r="A209" s="1" t="s">
         <v>720</v>
       </c>
@@ -10821,7 +10866,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:6">
       <c r="A210" s="1" t="s">
         <v>724</v>
       </c>
@@ -10838,7 +10883,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:6">
       <c r="A211" s="1" t="s">
         <v>728</v>
       </c>
@@ -10855,7 +10900,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:6">
       <c r="A212" s="1" t="s">
         <v>732</v>
       </c>
@@ -10872,7 +10917,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:6">
       <c r="A213" s="1" t="s">
         <v>736</v>
       </c>
@@ -10889,7 +10934,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:6">
       <c r="A214" s="1" t="s">
         <v>740</v>
       </c>
@@ -10906,7 +10951,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:6">
       <c r="A215" s="1" t="s">
         <v>744</v>
       </c>
@@ -10923,7 +10968,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:6">
       <c r="A216" s="1" t="s">
         <v>747</v>
       </c>
@@ -10940,7 +10985,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:6">
       <c r="A217" s="1" t="s">
         <v>751</v>
       </c>
@@ -10957,7 +11002,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:6">
       <c r="A218" s="1" t="s">
         <v>752</v>
       </c>
@@ -10974,7 +11019,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:6">
       <c r="A219" s="1" t="s">
         <v>755</v>
       </c>
@@ -10991,7 +11036,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:6">
       <c r="A220" s="1" t="s">
         <v>759</v>
       </c>
@@ -11008,7 +11053,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:6">
       <c r="A221" s="1" t="s">
         <v>763</v>
       </c>
@@ -11025,7 +11070,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:6">
       <c r="A222" s="1" t="s">
         <v>767</v>
       </c>
@@ -11042,7 +11087,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:6">
       <c r="A223" s="1" t="s">
         <v>771</v>
       </c>
@@ -11059,7 +11104,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:6">
       <c r="A224" s="1" t="s">
         <v>775</v>
       </c>
@@ -11076,7 +11121,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:6">
       <c r="A225" s="1" t="s">
         <v>779</v>
       </c>
@@ -11093,7 +11138,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:6">
       <c r="A226" s="1" t="s">
         <v>783</v>
       </c>
@@ -11110,7 +11155,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:6">
       <c r="A227" s="1" t="s">
         <v>786</v>
       </c>
@@ -11127,7 +11172,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:6">
       <c r="A228" s="1" t="s">
         <v>790</v>
       </c>
@@ -11144,7 +11189,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:6">
       <c r="A229" s="1" t="s">
         <v>791</v>
       </c>
@@ -11161,7 +11206,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:6">
       <c r="A230" s="1" t="s">
         <v>794</v>
       </c>
@@ -11178,7 +11223,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:6">
       <c r="A231" s="1" t="s">
         <v>798</v>
       </c>
@@ -11195,7 +11240,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:6">
       <c r="A232" s="1" t="s">
         <v>802</v>
       </c>
@@ -11212,7 +11257,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:6">
       <c r="A233" s="1" t="s">
         <v>806</v>
       </c>
@@ -11229,7 +11274,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:6">
       <c r="A234" s="1" t="s">
         <v>810</v>
       </c>
@@ -11246,7 +11291,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:6">
       <c r="A235" s="1" t="s">
         <v>814</v>
       </c>
@@ -11263,7 +11308,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:6">
       <c r="A236" s="1" t="s">
         <v>818</v>
       </c>
@@ -11280,7 +11325,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:6">
       <c r="A237" s="1" t="s">
         <v>822</v>
       </c>
@@ -11297,7 +11342,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:6">
       <c r="A238" s="1" t="s">
         <v>825</v>
       </c>
@@ -11314,7 +11359,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:6">
       <c r="A239" s="1" t="s">
         <v>829</v>
       </c>
@@ -11331,7 +11376,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:6">
       <c r="A240" s="1" t="s">
         <v>830</v>
       </c>
@@ -11348,7 +11393,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:6">
       <c r="A241" s="1" t="s">
         <v>833</v>
       </c>
@@ -11365,7 +11410,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:6">
       <c r="A242" s="1" t="s">
         <v>837</v>
       </c>
@@ -11382,7 +11427,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:6">
       <c r="A243" s="1" t="s">
         <v>841</v>
       </c>
@@ -11399,7 +11444,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:6">
       <c r="A244" s="1" t="s">
         <v>845</v>
       </c>
@@ -11416,7 +11461,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:6">
       <c r="A245" s="1" t="s">
         <v>849</v>
       </c>
@@ -11433,7 +11478,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:6">
       <c r="A246" s="1" t="s">
         <v>853</v>
       </c>
@@ -11450,7 +11495,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:6">
       <c r="A247" s="1" t="s">
         <v>857</v>
       </c>
@@ -11467,7 +11512,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:6">
       <c r="A248" s="1" t="s">
         <v>861</v>
       </c>
@@ -11484,7 +11529,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:6">
       <c r="A249" s="1" t="s">
         <v>864</v>
       </c>
@@ -11501,7 +11546,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:6">
       <c r="A250" s="1" t="s">
         <v>868</v>
       </c>
@@ -11518,7 +11563,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:6">
       <c r="A251" s="1" t="s">
         <v>869</v>
       </c>
@@ -11535,7 +11580,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:6">
       <c r="A252" s="1" t="s">
         <v>872</v>
       </c>
@@ -11552,7 +11597,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:6">
       <c r="A253" s="1" t="s">
         <v>876</v>
       </c>
@@ -11569,7 +11614,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:6">
       <c r="A254" s="1" t="s">
         <v>880</v>
       </c>
@@ -11586,7 +11631,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:6">
       <c r="A255" s="1" t="s">
         <v>884</v>
       </c>
@@ -11603,7 +11648,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:6">
       <c r="A256" s="1" t="s">
         <v>888</v>
       </c>
@@ -11620,7 +11665,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:6">
       <c r="A257" s="1" t="s">
         <v>892</v>
       </c>
@@ -11637,7 +11682,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:6">
       <c r="A258" s="1" t="s">
         <v>896</v>
       </c>
@@ -11654,7 +11699,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:6">
       <c r="A259" s="1" t="s">
         <v>900</v>
       </c>
@@ -11671,7 +11716,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:6">
       <c r="A260" s="1" t="s">
         <v>904</v>
       </c>
@@ -11688,7 +11733,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:6">
       <c r="A261" s="1" t="s">
         <v>908</v>
       </c>
@@ -11705,7 +11750,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:6">
       <c r="A262" s="1" t="s">
         <v>912</v>
       </c>
@@ -11722,7 +11767,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:6">
       <c r="A263" s="1" t="s">
         <v>916</v>
       </c>
@@ -11739,7 +11784,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:6">
       <c r="A264" s="1" t="s">
         <v>920</v>
       </c>
@@ -11756,7 +11801,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:6">
       <c r="A265" s="1" t="s">
         <v>924</v>
       </c>
@@ -11773,7 +11818,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:6">
       <c r="A266" s="1" t="s">
         <v>928</v>
       </c>
@@ -11790,7 +11835,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:6">
       <c r="A267" s="1" t="s">
         <v>932</v>
       </c>
@@ -11807,7 +11852,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:6">
       <c r="A268" s="1" t="s">
         <v>935</v>
       </c>
@@ -11824,7 +11869,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:6">
       <c r="A269" s="1" t="s">
         <v>939</v>
       </c>
@@ -11841,7 +11886,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:6">
       <c r="A270" s="1" t="s">
         <v>943</v>
       </c>
@@ -11858,7 +11903,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:6">
       <c r="A271" s="1" t="s">
         <v>947</v>
       </c>
@@ -11875,7 +11920,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:6">
       <c r="A272" s="1" t="s">
         <v>951</v>
       </c>
@@ -11892,7 +11937,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:6">
       <c r="A273" s="1" t="s">
         <v>953</v>
       </c>
@@ -11909,7 +11954,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:6">
       <c r="A274" s="1" t="s">
         <v>957</v>
       </c>
@@ -11926,7 +11971,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:6">
       <c r="A275" s="1" t="s">
         <v>961</v>
       </c>
@@ -11943,7 +11988,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:6">
       <c r="A276" s="1" t="s">
         <v>965</v>
       </c>
@@ -11960,7 +12005,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:6">
       <c r="A277" s="1" t="s">
         <v>969</v>
       </c>
@@ -11977,7 +12022,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:6">
       <c r="A278" s="1" t="s">
         <v>971</v>
       </c>
@@ -11994,7 +12039,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:6">
       <c r="A279" s="1" t="s">
         <v>975</v>
       </c>
@@ -12011,7 +12056,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:6">
       <c r="A280" s="1" t="s">
         <v>979</v>
       </c>
@@ -12028,7 +12073,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:6">
       <c r="A281" s="1" t="s">
         <v>982</v>
       </c>
@@ -12045,7 +12090,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:6">
       <c r="A282" s="1" t="s">
         <v>985</v>
       </c>
@@ -12062,7 +12107,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:6">
       <c r="A283" s="1" t="s">
         <v>989</v>
       </c>
@@ -12079,7 +12124,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:6">
       <c r="A284" s="1" t="s">
         <v>993</v>
       </c>
@@ -12096,7 +12141,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:6">
       <c r="A285" s="1" t="s">
         <v>997</v>
       </c>
@@ -12113,7 +12158,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:6">
       <c r="A286" s="1" t="s">
         <v>999</v>
       </c>
@@ -12130,7 +12175,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:6">
       <c r="A287" s="1" t="s">
         <v>1001</v>
       </c>
@@ -12147,7 +12192,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:6">
       <c r="A288" s="1" t="s">
         <v>1005</v>
       </c>
@@ -12164,7 +12209,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:6">
       <c r="A289" s="1" t="s">
         <v>1009</v>
       </c>
@@ -12181,7 +12226,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:6">
       <c r="A290" s="1" t="s">
         <v>1013</v>
       </c>
@@ -12198,7 +12243,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:6">
       <c r="A291" s="1" t="s">
         <v>1017</v>
       </c>
@@ -12215,7 +12260,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:6">
       <c r="A292" s="1" t="s">
         <v>1021</v>
       </c>
@@ -12232,7 +12277,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:6">
       <c r="A293" s="1" t="s">
         <v>1023</v>
       </c>
@@ -12249,7 +12294,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:6">
       <c r="A294" s="1" t="s">
         <v>1025</v>
       </c>
@@ -12266,7 +12311,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:6">
       <c r="A295" s="1" t="s">
         <v>1028</v>
       </c>
@@ -12283,7 +12328,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:6">
       <c r="A296" s="1" t="s">
         <v>1032</v>
       </c>
@@ -12300,7 +12345,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:6">
       <c r="A297" s="1" t="s">
         <v>1036</v>
       </c>
@@ -12317,7 +12362,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:6">
       <c r="A298" s="1" t="s">
         <v>1040</v>
       </c>
@@ -12334,7 +12379,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:6">
       <c r="A299" s="1" t="s">
         <v>1044</v>
       </c>
@@ -12351,7 +12396,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:6">
       <c r="A300" s="1" t="s">
         <v>1046</v>
       </c>
@@ -12368,7 +12413,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:6">
       <c r="A301" s="1" t="s">
         <v>1048</v>
       </c>
@@ -12385,7 +12430,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:6">
       <c r="A302" s="1" t="s">
         <v>1051</v>
       </c>
@@ -12402,7 +12447,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:6">
       <c r="A303" s="1" t="s">
         <v>1055</v>
       </c>
@@ -12419,7 +12464,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:6">
       <c r="A304" s="1" t="s">
         <v>1059</v>
       </c>
@@ -12434,7 +12479,7 @@
       </c>
       <c r="F304" s="2"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:6">
       <c r="A305" s="1" t="s">
         <v>1062</v>
       </c>
@@ -12449,7 +12494,7 @@
       </c>
       <c r="F305" s="2"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:6">
       <c r="A306" s="1" t="s">
         <v>1065</v>
       </c>
@@ -12464,7 +12509,7 @@
       </c>
       <c r="F306" s="2"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:6">
       <c r="A307" s="1" t="s">
         <v>1066</v>
       </c>
@@ -12479,7 +12524,7 @@
       </c>
       <c r="F307" s="2"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:6">
       <c r="A308" s="1" t="s">
         <v>1068</v>
       </c>
@@ -12494,7 +12539,7 @@
       </c>
       <c r="F308" s="2"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:6">
       <c r="A309" s="1" t="s">
         <v>1071</v>
       </c>
@@ -12509,7 +12554,7 @@
       </c>
       <c r="F309" s="2"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:6">
       <c r="A310" s="1" t="s">
         <v>1074</v>
       </c>
@@ -12524,7 +12569,7 @@
       </c>
       <c r="F310" s="2"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:6">
       <c r="A311" s="1" t="s">
         <v>1077</v>
       </c>
@@ -12539,7 +12584,7 @@
       </c>
       <c r="F311" s="2"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:6">
       <c r="A312" s="1" t="s">
         <v>1080</v>
       </c>
@@ -12554,7 +12599,7 @@
       </c>
       <c r="F312" s="2"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:6">
       <c r="A313" s="1" t="s">
         <v>1083</v>
       </c>
@@ -12569,7 +12614,7 @@
       </c>
       <c r="F313" s="2"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:6">
       <c r="A314" s="1" t="s">
         <v>1086</v>
       </c>
@@ -12584,7 +12629,7 @@
       </c>
       <c r="F314" s="2"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:6">
       <c r="A315" s="1" t="s">
         <v>1089</v>
       </c>
@@ -12599,7 +12644,7 @@
       </c>
       <c r="F315" s="2"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:6">
       <c r="A316" s="1" t="s">
         <v>1092</v>
       </c>
@@ -12614,7 +12659,7 @@
       </c>
       <c r="F316" s="2"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:6">
       <c r="A317" s="1" t="s">
         <v>1095</v>
       </c>
@@ -12629,7 +12674,7 @@
       </c>
       <c r="F317" s="2"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:6">
       <c r="A318" s="1" t="s">
         <v>1098</v>
       </c>
@@ -12644,7 +12689,7 @@
       </c>
       <c r="F318" s="2"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:6">
       <c r="A319" s="1" t="s">
         <v>1101</v>
       </c>
@@ -12659,7 +12704,7 @@
       </c>
       <c r="F319" s="2"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:6">
       <c r="A320" s="1" t="s">
         <v>1104</v>
       </c>
@@ -12674,7 +12719,7 @@
       </c>
       <c r="F320" s="2"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:6">
       <c r="A321" s="1" t="s">
         <v>1105</v>
       </c>
@@ -12689,7 +12734,7 @@
       </c>
       <c r="F321" s="2"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:6">
       <c r="A322" s="1" t="s">
         <v>1107</v>
       </c>
@@ -12704,7 +12749,7 @@
       </c>
       <c r="F322" s="2"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:6">
       <c r="A323" s="1" t="s">
         <v>1110</v>
       </c>
@@ -12719,7 +12764,7 @@
       </c>
       <c r="F323" s="2"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:6">
       <c r="A324" s="1" t="s">
         <v>1113</v>
       </c>
@@ -12734,7 +12779,7 @@
       </c>
       <c r="F324" s="2"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:6">
       <c r="A325" s="1" t="s">
         <v>1116</v>
       </c>
@@ -12749,7 +12794,7 @@
       </c>
       <c r="F325" s="2"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:6">
       <c r="A326" s="1" t="s">
         <v>1119</v>
       </c>
@@ -12764,7 +12809,7 @@
       </c>
       <c r="F326" s="2"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:6">
       <c r="A327" s="1" t="s">
         <v>1122</v>
       </c>
@@ -12779,7 +12824,7 @@
       </c>
       <c r="F327" s="2"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:6">
       <c r="A328" s="1" t="s">
         <v>1123</v>
       </c>
@@ -12794,7 +12839,7 @@
       </c>
       <c r="F328" s="2"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:6">
       <c r="A329" s="1" t="s">
         <v>1125</v>
       </c>
@@ -12809,7 +12854,7 @@
       </c>
       <c r="F329" s="2"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:6">
       <c r="A330" s="1" t="s">
         <v>1128</v>
       </c>
@@ -12824,7 +12869,7 @@
       </c>
       <c r="F330" s="2"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:6">
       <c r="A331" s="1" t="s">
         <v>1131</v>
       </c>
@@ -12839,7 +12884,7 @@
       </c>
       <c r="F331" s="2"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:6">
       <c r="A332" s="1" t="s">
         <v>1134</v>
       </c>
@@ -12854,7 +12899,7 @@
       </c>
       <c r="F332" s="2"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:6">
       <c r="A333" s="1" t="s">
         <v>1137</v>
       </c>
@@ -12869,7 +12914,7 @@
       </c>
       <c r="F333" s="2"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:6">
       <c r="A334" s="1" t="s">
         <v>1140</v>
       </c>
@@ -12884,7 +12929,7 @@
       </c>
       <c r="F334" s="2"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:6">
       <c r="A335" s="1" t="s">
         <v>1141</v>
       </c>
@@ -12899,7 +12944,7 @@
       </c>
       <c r="F335" s="2"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:6">
       <c r="A336" s="1" t="s">
         <v>1143</v>
       </c>
@@ -12914,7 +12959,7 @@
       </c>
       <c r="F336" s="2"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:6">
       <c r="A337" s="1" t="s">
         <v>1146</v>
       </c>
@@ -12929,7 +12974,7 @@
       </c>
       <c r="F337" s="2"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:6">
       <c r="A338" s="1" t="s">
         <v>1149</v>
       </c>
@@ -12944,7 +12989,7 @@
       </c>
       <c r="F338" s="2"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:6">
       <c r="A339" s="1" t="s">
         <v>1152</v>
       </c>
@@ -12959,7 +13004,7 @@
       </c>
       <c r="F339" s="2"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:6">
       <c r="A340" s="1" t="s">
         <v>1155</v>
       </c>
@@ -12974,7 +13019,7 @@
       </c>
       <c r="F340" s="2"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:6">
       <c r="A341" s="1" t="s">
         <v>1158</v>
       </c>
@@ -12989,7 +13034,7 @@
       </c>
       <c r="F341" s="2"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:6">
       <c r="A342" s="1" t="s">
         <v>1159</v>
       </c>
@@ -13004,7 +13049,7 @@
       </c>
       <c r="F342" s="2"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:6">
       <c r="A343" s="1" t="s">
         <v>1161</v>
       </c>
@@ -13019,7 +13064,7 @@
       </c>
       <c r="F343" s="2"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:6">
       <c r="A344" s="1" t="s">
         <v>1164</v>
       </c>
@@ -13034,7 +13079,7 @@
       </c>
       <c r="F344" s="2"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:6">
       <c r="A345" s="1" t="s">
         <v>1167</v>
       </c>
@@ -13049,7 +13094,7 @@
       </c>
       <c r="F345" s="2"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:6">
       <c r="A346" s="1" t="s">
         <v>1170</v>
       </c>
@@ -13064,7 +13109,7 @@
       </c>
       <c r="F346" s="2"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:6">
       <c r="A347" s="1" t="s">
         <v>1173</v>
       </c>
@@ -13079,7 +13124,7 @@
       </c>
       <c r="F347" s="2"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:6">
       <c r="A348" s="1" t="s">
         <v>1176</v>
       </c>
@@ -13094,7 +13139,7 @@
       </c>
       <c r="F348" s="2"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:6">
       <c r="A349" s="1" t="s">
         <v>1179</v>
       </c>
@@ -13109,7 +13154,7 @@
       </c>
       <c r="F349" s="2"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:6">
       <c r="A350" s="1" t="s">
         <v>1182</v>
       </c>
@@ -13124,7 +13169,7 @@
       </c>
       <c r="F350" s="2"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:6">
       <c r="A351" s="1" t="s">
         <v>1183</v>
       </c>
@@ -13139,7 +13184,7 @@
       </c>
       <c r="F351" s="2"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:6">
       <c r="A352" s="1" t="s">
         <v>1185</v>
       </c>
@@ -13154,7 +13199,7 @@
       </c>
       <c r="F352" s="2"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:6">
       <c r="A353" s="1" t="s">
         <v>1188</v>
       </c>
@@ -13169,7 +13214,7 @@
       </c>
       <c r="F353" s="2"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:6">
       <c r="A354" s="1" t="s">
         <v>1191</v>
       </c>
@@ -13184,7 +13229,7 @@
       </c>
       <c r="F354" s="2"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:6">
       <c r="A355" s="1" t="s">
         <v>1194</v>
       </c>
@@ -13201,7 +13246,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:6">
       <c r="A356" s="1" t="s">
         <v>1197</v>
       </c>
@@ -13218,7 +13263,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:6">
       <c r="A357" s="1" t="s">
         <v>1200</v>
       </c>
@@ -13235,7 +13280,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:6">
       <c r="A358" s="1" t="s">
         <v>1203</v>
       </c>
@@ -13252,7 +13297,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:6">
       <c r="A359" s="1" t="s">
         <v>1206</v>
       </c>
@@ -13269,7 +13314,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:6">
       <c r="A360" s="1" t="s">
         <v>1209</v>
       </c>
@@ -13286,7 +13331,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:6">
       <c r="A361" s="1" t="s">
         <v>1212</v>
       </c>
@@ -13303,7 +13348,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:6">
       <c r="A362" s="1" t="s">
         <v>1215</v>
       </c>
@@ -13320,7 +13365,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:6">
       <c r="A363" s="1" t="s">
         <v>1218</v>
       </c>
@@ -13337,7 +13382,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:6">
       <c r="A364" s="1" t="s">
         <v>1221</v>
       </c>
@@ -13354,7 +13399,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:6">
       <c r="A365" s="1" t="s">
         <v>1224</v>
       </c>
@@ -13371,7 +13416,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:6">
       <c r="A366" s="1" t="s">
         <v>1227</v>
       </c>
@@ -13388,7 +13433,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:6">
       <c r="A367" s="1" t="s">
         <v>1230</v>
       </c>
@@ -13405,7 +13450,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:6">
       <c r="A368" s="1" t="s">
         <v>1232</v>
       </c>
@@ -13422,7 +13467,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:6">
       <c r="A369" s="1" t="s">
         <v>1234</v>
       </c>
@@ -13439,7 +13484,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:6">
       <c r="A370" s="1" t="s">
         <v>1237</v>
       </c>
@@ -13456,7 +13501,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:6">
       <c r="A371" s="1" t="s">
         <v>1240</v>
       </c>
@@ -13473,7 +13518,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:6">
       <c r="A372" s="1" t="s">
         <v>1243</v>
       </c>
@@ -13490,7 +13535,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:6">
       <c r="A373" s="1" t="s">
         <v>1246</v>
       </c>
@@ -13507,7 +13552,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:6">
       <c r="A374" s="1" t="s">
         <v>1249</v>
       </c>
@@ -13524,7 +13569,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:6">
       <c r="A375" s="1" t="s">
         <v>1252</v>
       </c>
@@ -13541,7 +13586,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:6">
       <c r="A376" s="1" t="s">
         <v>1255</v>
       </c>
@@ -13558,7 +13603,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:6">
       <c r="A377" s="1" t="s">
         <v>1258</v>
       </c>
@@ -13575,7 +13620,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:6">
       <c r="A378" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13592,7 +13637,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:6">
       <c r="A379" s="1" t="s">
         <v>1264</v>
       </c>
@@ -13609,7 +13654,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:6">
       <c r="A380" s="1" t="s">
         <v>1267</v>
       </c>
@@ -13626,7 +13671,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:6">
       <c r="A381" s="1" t="s">
         <v>1270</v>
       </c>
@@ -13643,7 +13688,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:6">
       <c r="A382" s="1" t="s">
         <v>1273</v>
       </c>
@@ -13660,7 +13705,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:6">
       <c r="A383" s="1" t="s">
         <v>1275</v>
       </c>
@@ -13677,7 +13722,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:6">
       <c r="A384" s="1" t="s">
         <v>1278</v>
       </c>
@@ -13694,7 +13739,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:6">
       <c r="A385" s="1" t="s">
         <v>1281</v>
       </c>
@@ -13711,7 +13756,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:6">
       <c r="A386" s="1" t="s">
         <v>1284</v>
       </c>
@@ -13728,7 +13773,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:6">
       <c r="A387" s="1" t="s">
         <v>1287</v>
       </c>
@@ -13745,7 +13790,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:6">
       <c r="A388" s="1" t="s">
         <v>1290</v>
       </c>
@@ -13762,7 +13807,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:6">
       <c r="A389" s="1" t="s">
         <v>1293</v>
       </c>
@@ -13779,7 +13824,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:6">
       <c r="A390" s="1" t="s">
         <v>1296</v>
       </c>
@@ -13796,7 +13841,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:6">
       <c r="A391" s="1" t="s">
         <v>1299</v>
       </c>
@@ -13813,7 +13858,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:6">
       <c r="A392" s="1" t="s">
         <v>1301</v>
       </c>
@@ -13830,7 +13875,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:6">
       <c r="A393" s="1" t="s">
         <v>1303</v>
       </c>
@@ -13847,7 +13892,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:6">
       <c r="A394" s="1" t="s">
         <v>1305</v>
       </c>
@@ -13864,7 +13909,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:6">
       <c r="A395" s="1" t="s">
         <v>1307</v>
       </c>
@@ -13881,7 +13926,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:6">
       <c r="A396" s="1" t="s">
         <v>1309</v>
       </c>
@@ -13898,7 +13943,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:6">
       <c r="A397" s="1" t="s">
         <v>1311</v>
       </c>
@@ -13915,7 +13960,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:6">
       <c r="A398" s="1" t="s">
         <v>1314</v>
       </c>
@@ -13932,7 +13977,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:6">
       <c r="A399" s="1" t="s">
         <v>1317</v>
       </c>
@@ -13949,7 +13994,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:6">
       <c r="A400" s="1" t="s">
         <v>1320</v>
       </c>
@@ -13966,7 +14011,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:6">
       <c r="A401" s="1" t="s">
         <v>1323</v>
       </c>
@@ -13983,7 +14028,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:6">
       <c r="A402" s="1" t="s">
         <v>1326</v>
       </c>
@@ -14000,7 +14045,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:6">
       <c r="A403" s="1" t="s">
         <v>1329</v>
       </c>
@@ -14017,7 +14062,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:6">
       <c r="A404" s="1" t="s">
         <v>1332</v>
       </c>
@@ -14034,7 +14079,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:6">
       <c r="A405" s="1" t="s">
         <v>1335</v>
       </c>
@@ -14051,7 +14096,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:6">
       <c r="A406" s="1" t="s">
         <v>1338</v>
       </c>
@@ -14068,7 +14113,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:6">
       <c r="A407" s="1" t="s">
         <v>1340</v>
       </c>
@@ -14085,7 +14130,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:6">
       <c r="A408" s="1" t="s">
         <v>1342</v>
       </c>
@@ -14102,7 +14147,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:6">
       <c r="A409" s="1" t="s">
         <v>1344</v>
       </c>
@@ -14119,7 +14164,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:6">
       <c r="A410" s="1" t="s">
         <v>1346</v>
       </c>
@@ -14136,7 +14181,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:6">
       <c r="A411" s="1" t="s">
         <v>1348</v>
       </c>
@@ -14153,7 +14198,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:6">
       <c r="A412" s="1" t="s">
         <v>1351</v>
       </c>
@@ -14170,7 +14215,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:6">
       <c r="A413" s="1" t="s">
         <v>1354</v>
       </c>
@@ -14187,7 +14232,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:6">
       <c r="A414" s="1" t="s">
         <v>1357</v>
       </c>
@@ -14204,7 +14249,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:6">
       <c r="A415" s="1" t="s">
         <v>1360</v>
       </c>
@@ -14221,7 +14266,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:6">
       <c r="A416" s="1" t="s">
         <v>1363</v>
       </c>
@@ -14238,7 +14283,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:6">
       <c r="A417" s="1" t="s">
         <v>1366</v>
       </c>
@@ -14255,7 +14300,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:6">
       <c r="A418" s="1" t="s">
         <v>1369</v>
       </c>
@@ -14272,7 +14317,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:6">
       <c r="A419" s="1" t="s">
         <v>1372</v>
       </c>
@@ -14289,7 +14334,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:6">
       <c r="A420" s="1" t="s">
         <v>1374</v>
       </c>
@@ -14306,7 +14351,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:6">
       <c r="A421" s="1" t="s">
         <v>1376</v>
       </c>
@@ -14323,7 +14368,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:6">
       <c r="A422" s="1" t="s">
         <v>1378</v>
       </c>
@@ -14340,7 +14385,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:6">
       <c r="A423" s="1" t="s">
         <v>1380</v>
       </c>
@@ -14357,7 +14402,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:6">
       <c r="A424" s="1" t="s">
         <v>1382</v>
       </c>
@@ -14374,7 +14419,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:6">
       <c r="A425" s="1" t="s">
         <v>1384</v>
       </c>
@@ -14391,7 +14436,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:6">
       <c r="A426" s="1" t="s">
         <v>1387</v>
       </c>
@@ -14408,7 +14453,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:6">
       <c r="A427" s="1" t="s">
         <v>1390</v>
       </c>
@@ -14425,7 +14470,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:6">
       <c r="A428" s="1" t="s">
         <v>1393</v>
       </c>
@@ -14442,7 +14487,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:6">
       <c r="A429" s="1" t="s">
         <v>1396</v>
       </c>
@@ -14459,7 +14504,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:6">
       <c r="A430" s="1" t="s">
         <v>1399</v>
       </c>
@@ -14476,7 +14521,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:6">
       <c r="A431" s="1" t="s">
         <v>1402</v>
       </c>
@@ -14493,7 +14538,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:6">
       <c r="A432" s="1" t="s">
         <v>1405</v>
       </c>
@@ -14510,7 +14555,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:6">
       <c r="A433" s="1" t="s">
         <v>1408</v>
       </c>
@@ -14527,7 +14572,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:6">
       <c r="A434" s="1" t="s">
         <v>1411</v>
       </c>
@@ -14544,7 +14589,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:6">
       <c r="A435" s="1" t="s">
         <v>1413</v>
       </c>
@@ -14561,7 +14606,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:6">
       <c r="A436" s="1" t="s">
         <v>1415</v>
       </c>
@@ -14578,7 +14623,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:6">
       <c r="A437" s="1" t="s">
         <v>1417</v>
       </c>
@@ -14595,7 +14640,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:6">
       <c r="A438" s="1" t="s">
         <v>1419</v>
       </c>
@@ -14612,7 +14657,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:6">
       <c r="A439" s="1" t="s">
         <v>1422</v>
       </c>
@@ -14629,7 +14674,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:6">
       <c r="A440" s="1" t="s">
         <v>1425</v>
       </c>
@@ -14646,7 +14691,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:6">
       <c r="A441" s="1" t="s">
         <v>1428</v>
       </c>
@@ -14663,7 +14708,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:6">
       <c r="A442" s="1" t="s">
         <v>1431</v>
       </c>
@@ -14680,7 +14725,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:6">
       <c r="A443" s="1" t="s">
         <v>1434</v>
       </c>
@@ -14697,7 +14742,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:6">
       <c r="A444" s="1" t="s">
         <v>1437</v>
       </c>
@@ -14714,7 +14759,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:6">
       <c r="A445" s="1" t="s">
         <v>1440</v>
       </c>
@@ -14731,7 +14776,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:6">
       <c r="A446" s="1" t="s">
         <v>1443</v>
       </c>
@@ -14748,7 +14793,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:6">
       <c r="A447" s="1" t="s">
         <v>1446</v>
       </c>
@@ -14765,7 +14810,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:6">
       <c r="A448" s="1" t="s">
         <v>1448</v>
       </c>
@@ -14782,7 +14827,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:6">
       <c r="A449" s="1" t="s">
         <v>1450</v>
       </c>
@@ -14799,7 +14844,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:6">
       <c r="A450" s="1" t="s">
         <v>1452</v>
       </c>
@@ -14816,7 +14861,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:6">
       <c r="A451" s="1" t="s">
         <v>1454</v>
       </c>
@@ -14833,7 +14878,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:6">
       <c r="A452" s="1" t="s">
         <v>1456</v>
       </c>
@@ -14850,7 +14895,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:6">
       <c r="A453" s="1" t="s">
         <v>1458</v>
       </c>
@@ -14867,7 +14912,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:6">
       <c r="A454" s="1" t="s">
         <v>1461</v>
       </c>
@@ -14884,7 +14929,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:6">
       <c r="A455" s="1" t="s">
         <v>1464</v>
       </c>
@@ -14901,7 +14946,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:6">
       <c r="A456" s="1" t="s">
         <v>1467</v>
       </c>
@@ -14918,7 +14963,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:6">
       <c r="A457" s="1" t="s">
         <v>1470</v>
       </c>
@@ -14935,7 +14980,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:6">
       <c r="A458" s="1" t="s">
         <v>1473</v>
       </c>
@@ -14952,7 +14997,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:6">
       <c r="A459" s="1" t="s">
         <v>1476</v>
       </c>
@@ -14969,7 +15014,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:6">
       <c r="A460" s="1" t="s">
         <v>1479</v>
       </c>
@@ -14986,7 +15031,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:6">
       <c r="A461" s="1" t="s">
         <v>1482</v>
       </c>
@@ -15003,7 +15048,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:6">
       <c r="A462" s="1" t="s">
         <v>1485</v>
       </c>
@@ -15020,7 +15065,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:6">
       <c r="A463" s="1" t="s">
         <v>1487</v>
       </c>
@@ -15037,7 +15082,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:6">
       <c r="A464" s="1" t="s">
         <v>1489</v>
       </c>
@@ -15054,7 +15099,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:6">
       <c r="A465" s="1" t="s">
         <v>1491</v>
       </c>
@@ -15071,7 +15116,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:6">
       <c r="A466" s="1" t="s">
         <v>1493</v>
       </c>
@@ -15088,7 +15133,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:6">
       <c r="A467" s="1" t="s">
         <v>1496</v>
       </c>
@@ -15105,7 +15150,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:6">
       <c r="A468" s="1" t="s">
         <v>1499</v>
       </c>
@@ -15122,7 +15167,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:6">
       <c r="A469" s="1" t="s">
         <v>1502</v>
       </c>
@@ -15139,7 +15184,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:6">
       <c r="A470" s="1" t="s">
         <v>1505</v>
       </c>
@@ -15156,7 +15201,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:6">
       <c r="A471" s="1" t="s">
         <v>1508</v>
       </c>
@@ -15173,7 +15218,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:6">
       <c r="A472" s="1" t="s">
         <v>1511</v>
       </c>
@@ -15190,7 +15235,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:6">
       <c r="A473" s="1" t="s">
         <v>1514</v>
       </c>
@@ -15207,7 +15252,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:6">
       <c r="A474" s="1" t="s">
         <v>1517</v>
       </c>
@@ -15224,7 +15269,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:6">
       <c r="A475" s="1" t="s">
         <v>1520</v>
       </c>
@@ -15241,7 +15286,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:6">
       <c r="A476" s="1" t="s">
         <v>1522</v>
       </c>
@@ -15258,7 +15303,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:6">
       <c r="A477" s="1" t="s">
         <v>1524</v>
       </c>
@@ -15275,7 +15320,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:6">
       <c r="A478" s="1" t="s">
         <v>1526</v>
       </c>
@@ -15292,7 +15337,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:6">
       <c r="A479" s="1" t="s">
         <v>1528</v>
       </c>
@@ -15309,7 +15354,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:6">
       <c r="A480" s="1" t="s">
         <v>1530</v>
       </c>
@@ -15326,7 +15371,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:6">
       <c r="A481" s="1" t="s">
         <v>1532</v>
       </c>
@@ -15343,7 +15388,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:6">
       <c r="A482" s="1" t="s">
         <v>1535</v>
       </c>
@@ -15360,7 +15405,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:6">
       <c r="A483" s="1" t="s">
         <v>1538</v>
       </c>
@@ -15377,7 +15422,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:6">
       <c r="A484" s="1" t="s">
         <v>1541</v>
       </c>
@@ -15394,7 +15439,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:6">
       <c r="A485" s="1" t="s">
         <v>1544</v>
       </c>
@@ -15411,7 +15456,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:6">
       <c r="A486" s="1" t="s">
         <v>1547</v>
       </c>
@@ -15428,7 +15473,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:6">
       <c r="A487" s="1" t="s">
         <v>1550</v>
       </c>
@@ -15443,7 +15488,7 @@
       </c>
       <c r="F487" s="2"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:6">
       <c r="A488" s="1" t="s">
         <v>1553</v>
       </c>
@@ -15458,7 +15503,7 @@
       </c>
       <c r="F488" s="2"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:6">
       <c r="A489" s="1" t="s">
         <v>1556</v>
       </c>
@@ -15473,7 +15518,7 @@
       </c>
       <c r="F489" s="2"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:6">
       <c r="A490" s="1" t="s">
         <v>1559</v>
       </c>
@@ -15488,7 +15533,7 @@
       </c>
       <c r="F490" s="2"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:6">
       <c r="A491" s="1" t="s">
         <v>1561</v>
       </c>
@@ -15503,7 +15548,7 @@
       </c>
       <c r="F491" s="2"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:6">
       <c r="A492" s="1" t="s">
         <v>1563</v>
       </c>
@@ -15518,7 +15563,7 @@
       </c>
       <c r="F492" s="2"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:6">
       <c r="A493" s="1" t="s">
         <v>1565</v>
       </c>
@@ -15533,7 +15578,7 @@
       </c>
       <c r="F493" s="2"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:6">
       <c r="A494" s="1" t="s">
         <v>1567</v>
       </c>
@@ -15548,7 +15593,7 @@
       </c>
       <c r="F494" s="2"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:6">
       <c r="A495" s="1" t="s">
         <v>1570</v>
       </c>
@@ -15563,7 +15608,7 @@
       </c>
       <c r="F495" s="2"/>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:6">
       <c r="A496" s="1" t="s">
         <v>1573</v>
       </c>
@@ -15578,7 +15623,7 @@
       </c>
       <c r="F496" s="2"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:6">
       <c r="A497" s="1" t="s">
         <v>1576</v>
       </c>
@@ -15593,7 +15638,7 @@
       </c>
       <c r="F497" s="2"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:6">
       <c r="A498" s="1" t="s">
         <v>1579</v>
       </c>
@@ -15608,7 +15653,7 @@
       </c>
       <c r="F498" s="2"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:6">
       <c r="A499" s="1" t="s">
         <v>1582</v>
       </c>
@@ -15623,7 +15668,7 @@
       </c>
       <c r="F499" s="2"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:6">
       <c r="A500" s="1" t="s">
         <v>1585</v>
       </c>
@@ -15638,7 +15683,7 @@
       </c>
       <c r="F500" s="2"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:6">
       <c r="A501" s="1" t="s">
         <v>1587</v>
       </c>
@@ -15653,7 +15698,7 @@
       </c>
       <c r="F501" s="2"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:6">
       <c r="A502" s="1" t="s">
         <v>1589</v>
       </c>
@@ -15668,7 +15713,7 @@
       </c>
       <c r="F502" s="2"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:6">
       <c r="A503" s="1" t="s">
         <v>1591</v>
       </c>
@@ -15683,7 +15728,7 @@
       </c>
       <c r="F503" s="2"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:6">
       <c r="A504" s="1" t="s">
         <v>1593</v>
       </c>
@@ -15698,7 +15743,7 @@
       </c>
       <c r="F504" s="2"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:6">
       <c r="A505" s="1" t="s">
         <v>1595</v>
       </c>
@@ -15713,7 +15758,7 @@
       </c>
       <c r="F505" s="2"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:6">
       <c r="A506" s="1" t="s">
         <v>1597</v>
       </c>
@@ -15728,7 +15773,7 @@
       </c>
       <c r="F506" s="2"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:6">
       <c r="A507" s="1" t="s">
         <v>1600</v>
       </c>
@@ -15743,7 +15788,7 @@
       </c>
       <c r="F507" s="2"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:6">
       <c r="A508" s="1" t="s">
         <v>1603</v>
       </c>
@@ -15758,7 +15803,7 @@
       </c>
       <c r="F508" s="2"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:6">
       <c r="A509" s="1" t="s">
         <v>1606</v>
       </c>
@@ -15773,7 +15818,7 @@
       </c>
       <c r="F509" s="2"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:6">
       <c r="A510" s="1" t="s">
         <v>1609</v>
       </c>
@@ -15788,7 +15833,7 @@
       </c>
       <c r="F510" s="2"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:6">
       <c r="A511" s="1" t="s">
         <v>1612</v>
       </c>
@@ -15803,7 +15848,7 @@
       </c>
       <c r="F511" s="2"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:6">
       <c r="A512" s="1" t="s">
         <v>1615</v>
       </c>
@@ -15818,7 +15863,7 @@
       </c>
       <c r="F512" s="2"/>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:6">
       <c r="A513" s="1" t="s">
         <v>1617</v>
       </c>
@@ -15833,7 +15878,7 @@
       </c>
       <c r="F513" s="2"/>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:6">
       <c r="A514" s="1" t="s">
         <v>1619</v>
       </c>
@@ -15848,7 +15893,7 @@
       </c>
       <c r="F514" s="2"/>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:6">
       <c r="A515" s="1" t="s">
         <v>1621</v>
       </c>
@@ -15863,7 +15908,7 @@
       </c>
       <c r="F515" s="2"/>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:6">
       <c r="A516" s="1" t="s">
         <v>1623</v>
       </c>
@@ -15878,7 +15923,7 @@
       </c>
       <c r="F516" s="2"/>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:6">
       <c r="A517" s="1" t="s">
         <v>1626</v>
       </c>
@@ -15893,7 +15938,7 @@
       </c>
       <c r="F517" s="2"/>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:6">
       <c r="A518" s="1" t="s">
         <v>1629</v>
       </c>
@@ -15908,7 +15953,7 @@
       </c>
       <c r="F518" s="2"/>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:6">
       <c r="A519" s="1" t="s">
         <v>1632</v>
       </c>
@@ -15923,7 +15968,7 @@
       </c>
       <c r="F519" s="2"/>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:6">
       <c r="A520" s="1" t="s">
         <v>1635</v>
       </c>
@@ -15938,7 +15983,7 @@
       </c>
       <c r="F520" s="2"/>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:6">
       <c r="A521" s="1" t="s">
         <v>1638</v>
       </c>
@@ -15953,7 +15998,7 @@
       </c>
       <c r="F521" s="2"/>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:6">
       <c r="A522" s="1" t="s">
         <v>1641</v>
       </c>
@@ -15968,7 +16013,7 @@
       </c>
       <c r="F522" s="2"/>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:6">
       <c r="A523" s="1" t="s">
         <v>1643</v>
       </c>
@@ -15983,7 +16028,7 @@
       </c>
       <c r="F523" s="2"/>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:6">
       <c r="A524" s="1" t="s">
         <v>1645</v>
       </c>
@@ -15998,7 +16043,7 @@
       </c>
       <c r="F524" s="2"/>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:6">
       <c r="A525" s="1" t="s">
         <v>1647</v>
       </c>
@@ -16013,7 +16058,7 @@
       </c>
       <c r="F525" s="2"/>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:6">
       <c r="A526" s="1" t="s">
         <v>1649</v>
       </c>
@@ -16028,7 +16073,7 @@
       </c>
       <c r="F526" s="2"/>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:6">
       <c r="A527" s="1" t="s">
         <v>1651</v>
       </c>
@@ -16043,7 +16088,7 @@
       </c>
       <c r="F527" s="2"/>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:6">
       <c r="A528" s="1" t="s">
         <v>1653</v>
       </c>
@@ -16058,7 +16103,7 @@
       </c>
       <c r="F528" s="2"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:6">
       <c r="A529" s="1" t="s">
         <v>1656</v>
       </c>
@@ -16073,7 +16118,7 @@
       </c>
       <c r="F529" s="2"/>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:6">
       <c r="A530" s="1" t="s">
         <v>1659</v>
       </c>
@@ -16088,7 +16133,7 @@
       </c>
       <c r="F530" s="2"/>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:6">
       <c r="A531" s="1" t="s">
         <v>1662</v>
       </c>
@@ -16103,7 +16148,7 @@
       </c>
       <c r="F531" s="2"/>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:6">
       <c r="A532" s="1" t="s">
         <v>1664</v>
       </c>
@@ -16118,7 +16163,7 @@
       </c>
       <c r="F532" s="2"/>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:6">
       <c r="A533" s="1" t="s">
         <v>1667</v>
       </c>
@@ -16133,7 +16178,7 @@
       </c>
       <c r="F533" s="2"/>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:6">
       <c r="A534" s="1" t="s">
         <v>1670</v>
       </c>
@@ -16148,7 +16193,7 @@
       </c>
       <c r="F534" s="2"/>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:6">
       <c r="A535" s="1" t="s">
         <v>1672</v>
       </c>
@@ -16163,7 +16208,7 @@
       </c>
       <c r="F535" s="2"/>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:6">
       <c r="A536" s="1" t="s">
         <v>1673</v>
       </c>
@@ -16178,7 +16223,7 @@
       </c>
       <c r="F536" s="2"/>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:6">
       <c r="A537" s="1" t="s">
         <v>1675</v>
       </c>
@@ -16193,7 +16238,7 @@
       </c>
       <c r="F537" s="2"/>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:6">
       <c r="A538" s="1" t="s">
         <v>1678</v>
       </c>
@@ -16208,7 +16253,7 @@
       </c>
       <c r="F538" s="2"/>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:6">
       <c r="A539" s="1" t="s">
         <v>1681</v>
       </c>
@@ -16223,7 +16268,7 @@
       </c>
       <c r="F539" s="2"/>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:6">
       <c r="A540" s="1" t="s">
         <v>1684</v>
       </c>
@@ -16238,7 +16283,7 @@
       </c>
       <c r="F540" s="2"/>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:6">
       <c r="A541" s="1" t="s">
         <v>1686</v>
       </c>
@@ -16253,7 +16298,7 @@
       </c>
       <c r="F541" s="2"/>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:6">
       <c r="A542" s="1" t="s">
         <v>1689</v>
       </c>
@@ -16268,7 +16313,7 @@
       </c>
       <c r="F542" s="2"/>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:6">
       <c r="A543" s="1" t="s">
         <v>1692</v>
       </c>
@@ -16283,7 +16328,7 @@
       </c>
       <c r="F543" s="2"/>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:6">
       <c r="A544" s="1" t="s">
         <v>1694</v>
       </c>
@@ -16298,7 +16343,7 @@
       </c>
       <c r="F544" s="2"/>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:6">
       <c r="A545" s="1" t="s">
         <v>1697</v>
       </c>
@@ -16313,7 +16358,7 @@
       </c>
       <c r="F545" s="2"/>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:6">
       <c r="A546" s="1" t="s">
         <v>1700</v>
       </c>
@@ -16328,7 +16373,7 @@
       </c>
       <c r="F546" s="2"/>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:6">
       <c r="A547" s="1" t="s">
         <v>1701</v>
       </c>
@@ -16343,7 +16388,7 @@
       </c>
       <c r="F547" s="2"/>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:6">
       <c r="A548" s="1" t="s">
         <v>1703</v>
       </c>
@@ -16358,7 +16403,7 @@
       </c>
       <c r="F548" s="2"/>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:6">
       <c r="A549" s="1" t="s">
         <v>1706</v>
       </c>
@@ -16373,7 +16418,7 @@
       </c>
       <c r="F549" s="2"/>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:6">
       <c r="A550" s="1" t="s">
         <v>1709</v>
       </c>
@@ -16388,7 +16433,7 @@
       </c>
       <c r="F550" s="2"/>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:6">
       <c r="A551" s="1" t="s">
         <v>1712</v>
       </c>
@@ -16403,7 +16448,7 @@
       </c>
       <c r="F551" s="2"/>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:6">
       <c r="A552" s="1" t="s">
         <v>1715</v>
       </c>
@@ -16418,7 +16463,7 @@
       </c>
       <c r="F552" s="2"/>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:6">
       <c r="A553" s="1" t="s">
         <v>1718</v>
       </c>
@@ -16433,7 +16478,7 @@
       </c>
       <c r="F553" s="2"/>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:6">
       <c r="A554" s="1" t="s">
         <v>1719</v>
       </c>
@@ -16448,7 +16493,7 @@
       </c>
       <c r="F554" s="2"/>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:6">
       <c r="A555" s="1" t="s">
         <v>1721</v>
       </c>
@@ -16463,7 +16508,7 @@
       </c>
       <c r="F555" s="2"/>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:6">
       <c r="A556" s="1" t="s">
         <v>1724</v>
       </c>
@@ -16478,7 +16523,7 @@
       </c>
       <c r="F556" s="2"/>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:6">
       <c r="A557" s="1" t="s">
         <v>1727</v>
       </c>
@@ -16493,7 +16538,7 @@
       </c>
       <c r="F557" s="2"/>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:6">
       <c r="A558" s="1" t="s">
         <v>1730</v>
       </c>
@@ -16508,7 +16553,7 @@
       </c>
       <c r="F558" s="2"/>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:6">
       <c r="A559" s="1" t="s">
         <v>1733</v>
       </c>
@@ -16523,7 +16568,7 @@
       </c>
       <c r="F559" s="2"/>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:6">
       <c r="A560" s="1" t="s">
         <v>1736</v>
       </c>
@@ -16538,7 +16583,7 @@
       </c>
       <c r="F560" s="2"/>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:6">
       <c r="A561" s="1" t="s">
         <v>1737</v>
       </c>
@@ -16553,7 +16598,7 @@
       </c>
       <c r="F561" s="2"/>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:6">
       <c r="A562" s="1" t="s">
         <v>1739</v>
       </c>
@@ -16568,7 +16613,7 @@
       </c>
       <c r="F562" s="2"/>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:6">
       <c r="A563" s="1" t="s">
         <v>1742</v>
       </c>
@@ -16583,7 +16628,7 @@
       </c>
       <c r="F563" s="2"/>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:6">
       <c r="A564" s="1" t="s">
         <v>1745</v>
       </c>
@@ -16598,7 +16643,7 @@
       </c>
       <c r="F564" s="2"/>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:6">
       <c r="A565" s="1" t="s">
         <v>1748</v>
       </c>
@@ -16613,7 +16658,7 @@
       </c>
       <c r="F565" s="2"/>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:6">
       <c r="A566" s="1" t="s">
         <v>1751</v>
       </c>
@@ -16628,7 +16673,7 @@
       </c>
       <c r="F566" s="2"/>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:6">
       <c r="A567" s="1" t="s">
         <v>1754</v>
       </c>
@@ -16643,7 +16688,7 @@
       </c>
       <c r="F567" s="2"/>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:6">
       <c r="A568" s="1" t="s">
         <v>1755</v>
       </c>
@@ -16658,7 +16703,7 @@
       </c>
       <c r="F568" s="2"/>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:6">
       <c r="A569" s="1" t="s">
         <v>1757</v>
       </c>
@@ -16673,7 +16718,7 @@
       </c>
       <c r="F569" s="2"/>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:6">
       <c r="A570" s="1" t="s">
         <v>1760</v>
       </c>
@@ -16688,7 +16733,7 @@
       </c>
       <c r="F570" s="2"/>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:6">
       <c r="A571" s="1" t="s">
         <v>1763</v>
       </c>
@@ -16703,7 +16748,7 @@
       </c>
       <c r="F571" s="2"/>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:6">
       <c r="A572" s="1" t="s">
         <v>1766</v>
       </c>
@@ -16718,7 +16763,7 @@
       </c>
       <c r="F572" s="2"/>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:6">
       <c r="A573" s="1" t="s">
         <v>1769</v>
       </c>
@@ -16733,7 +16778,7 @@
       </c>
       <c r="F573" s="2"/>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:6">
       <c r="A574" s="1" t="s">
         <v>1772</v>
       </c>
@@ -16748,7 +16793,7 @@
       </c>
       <c r="F574" s="2"/>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:6">
       <c r="A575" s="1" t="s">
         <v>1773</v>
       </c>
@@ -16763,7 +16808,7 @@
       </c>
       <c r="F575" s="2"/>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:6">
       <c r="A576" s="1" t="s">
         <v>1775</v>
       </c>
@@ -16778,7 +16823,7 @@
       </c>
       <c r="F576" s="2"/>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:6">
       <c r="A577" s="1" t="s">
         <v>1778</v>
       </c>
@@ -16793,7 +16838,7 @@
       </c>
       <c r="F577" s="2"/>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:6">
       <c r="A578" s="1" t="s">
         <v>1781</v>
       </c>
@@ -16808,7 +16853,7 @@
       </c>
       <c r="F578" s="2"/>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:6">
       <c r="A579" s="1" t="s">
         <v>1784</v>
       </c>
@@ -16825,7 +16870,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:6">
       <c r="A580" s="1" t="s">
         <v>1789</v>
       </c>
@@ -16842,7 +16887,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:6">
       <c r="A581" s="1" t="s">
         <v>1793</v>
       </c>
@@ -16859,7 +16904,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:6">
       <c r="A582" s="1" t="s">
         <v>1797</v>
       </c>
@@ -16876,7 +16921,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:6">
       <c r="A583" s="1" t="s">
         <v>1800</v>
       </c>
@@ -16893,7 +16938,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:6">
       <c r="A584" s="1" t="s">
         <v>1805</v>
       </c>
@@ -16910,7 +16955,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:6">
       <c r="A585" s="1" t="s">
         <v>1809</v>
       </c>
@@ -16927,7 +16972,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:6">
       <c r="A586" s="1" t="s">
         <v>1813</v>
       </c>
@@ -16944,7 +16989,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:6">
       <c r="A587" s="1" t="s">
         <v>1817</v>
       </c>
@@ -16961,7 +17006,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:6">
       <c r="A588" s="1" t="s">
         <v>1821</v>
       </c>
@@ -16978,7 +17023,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:6">
       <c r="A589" s="1" t="s">
         <v>1825</v>
       </c>
@@ -16995,7 +17040,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:6">
       <c r="A590" s="1" t="s">
         <v>1829</v>
       </c>
@@ -17012,7 +17057,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:6">
       <c r="A591" s="1" t="s">
         <v>1833</v>
       </c>
@@ -17029,7 +17074,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:6">
       <c r="A592" s="1" t="s">
         <v>1837</v>
       </c>
@@ -17046,7 +17091,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:6">
       <c r="A593" s="1" t="s">
         <v>1841</v>
       </c>
@@ -17063,7 +17108,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:6">
       <c r="A594" s="1" t="s">
         <v>1845</v>
       </c>
@@ -17080,7 +17125,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:6">
       <c r="A595" s="1" t="s">
         <v>1849</v>
       </c>
@@ -17097,7 +17142,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:6">
       <c r="A596" s="1" t="s">
         <v>1853</v>
       </c>
@@ -17114,7 +17159,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:6">
       <c r="A597" s="1" t="s">
         <v>1857</v>
       </c>
@@ -17131,7 +17176,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:6">
       <c r="A598" s="1" t="s">
         <v>1861</v>
       </c>
@@ -17148,7 +17193,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:6">
       <c r="A599" s="1" t="s">
         <v>1865</v>
       </c>
@@ -17165,7 +17210,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:6">
       <c r="A600" s="1" t="s">
         <v>1868</v>
       </c>
@@ -17182,7 +17227,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:6">
       <c r="A601" s="1" t="s">
         <v>1871</v>
       </c>
@@ -17199,7 +17244,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:6">
       <c r="A602" s="1" t="s">
         <v>1874</v>
       </c>
@@ -17216,7 +17261,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:6">
       <c r="A603" s="1" t="s">
         <v>1877</v>
       </c>
@@ -17233,7 +17278,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:6">
       <c r="A604" s="1" t="s">
         <v>1880</v>
       </c>
@@ -17250,7 +17295,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:6">
       <c r="A605" s="1" t="s">
         <v>1883</v>
       </c>
@@ -17267,7 +17312,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:6">
       <c r="A606" s="1" t="s">
         <v>1886</v>
       </c>
@@ -17284,7 +17329,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:6">
       <c r="A607" s="1" t="s">
         <v>1889</v>
       </c>
@@ -17301,7 +17346,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:6">
       <c r="A608" s="1" t="s">
         <v>1894</v>
       </c>
@@ -17318,7 +17363,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:6">
       <c r="A609" s="1" t="s">
         <v>1898</v>
       </c>
@@ -17335,7 +17380,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:6">
       <c r="A610" s="1" t="s">
         <v>1902</v>
       </c>
@@ -17352,7 +17397,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:6">
       <c r="A611" s="1" t="s">
         <v>1906</v>
       </c>
@@ -17369,7 +17414,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:6">
       <c r="A612" s="1" t="s">
         <v>1910</v>
       </c>
@@ -17386,7 +17431,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:6">
       <c r="A613" s="1" t="s">
         <v>1913</v>
       </c>
@@ -17403,7 +17448,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:6">
       <c r="A614" s="1" t="s">
         <v>1917</v>
       </c>
@@ -17420,7 +17465,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:6">
       <c r="A615" s="1" t="s">
         <v>1921</v>
       </c>
@@ -17437,7 +17482,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:6">
       <c r="A616" s="1" t="s">
         <v>1925</v>
       </c>
@@ -17454,7 +17499,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:6">
       <c r="A617" s="1" t="s">
         <v>1929</v>
       </c>
@@ -17471,7 +17516,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:6">
       <c r="A618" s="1" t="s">
         <v>1933</v>
       </c>
@@ -17488,7 +17533,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:6">
       <c r="A619" s="1" t="s">
         <v>1937</v>
       </c>
@@ -17505,7 +17550,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:6">
       <c r="A620" s="1" t="s">
         <v>1941</v>
       </c>
@@ -17522,7 +17567,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:6">
       <c r="A621" s="1" t="s">
         <v>1945</v>
       </c>
@@ -17539,7 +17584,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:6">
       <c r="A622" s="1" t="s">
         <v>1949</v>
       </c>
@@ -17556,7 +17601,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:6">
       <c r="A623" s="1" t="s">
         <v>1953</v>
       </c>
@@ -17573,7 +17618,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:6">
       <c r="A624" s="1" t="s">
         <v>1957</v>
       </c>
@@ -17590,7 +17635,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:6">
       <c r="A625" s="1" t="s">
         <v>1961</v>
       </c>
@@ -17607,7 +17652,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:6">
       <c r="A626" s="1" t="s">
         <v>1965</v>
       </c>
@@ -17624,7 +17669,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:6">
       <c r="A627" s="1" t="s">
         <v>1969</v>
       </c>
@@ -17641,7 +17686,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:6">
       <c r="A628" s="1" t="s">
         <v>1973</v>
       </c>
@@ -17658,7 +17703,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:6">
       <c r="A629" s="1" t="s">
         <v>1977</v>
       </c>
@@ -17675,7 +17720,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:6">
       <c r="A630" s="1" t="s">
         <v>1981</v>
       </c>
@@ -17692,7 +17737,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:6">
       <c r="A631" s="1" t="s">
         <v>1985</v>
       </c>
@@ -17709,7 +17754,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:6">
       <c r="A632" s="1" t="s">
         <v>1989</v>
       </c>
@@ -17726,7 +17771,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:6">
       <c r="A633" s="1" t="s">
         <v>1993</v>
       </c>
@@ -17743,7 +17788,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:6">
       <c r="A634" s="1" t="s">
         <v>1997</v>
       </c>
@@ -17760,7 +17805,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:6">
       <c r="A635" s="1" t="s">
         <v>2001</v>
       </c>
@@ -17777,7 +17822,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:6">
       <c r="A636" s="1" t="s">
         <v>2005</v>
       </c>
@@ -17794,7 +17839,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:6">
       <c r="A637" s="1" t="s">
         <v>2009</v>
       </c>
@@ -17811,7 +17856,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:6">
       <c r="A638" s="1" t="s">
         <v>2012</v>
       </c>
@@ -17828,7 +17873,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:6">
       <c r="A639" s="1" t="s">
         <v>2015</v>
       </c>
@@ -17845,7 +17890,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:6">
       <c r="A640" s="1" t="s">
         <v>2018</v>
       </c>
@@ -17862,7 +17907,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:6">
       <c r="A641" s="1" t="s">
         <v>2021</v>
       </c>
@@ -17879,7 +17924,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:6">
       <c r="A642" s="1" t="s">
         <v>2024</v>
       </c>
@@ -17896,7 +17941,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:6">
       <c r="A643" s="1" t="s">
         <v>2027</v>
       </c>
@@ -17913,7 +17958,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:6">
       <c r="A644" s="1" t="s">
         <v>2030</v>
       </c>
@@ -17930,7 +17975,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:6">
       <c r="A645" s="1" t="s">
         <v>2033</v>
       </c>
@@ -17947,7 +17992,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:6">
       <c r="A646" s="1" t="s">
         <v>2036</v>
       </c>
@@ -17964,7 +18009,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:6">
       <c r="A647" s="1" t="s">
         <v>2040</v>
       </c>
@@ -17981,7 +18026,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:6">
       <c r="A648" s="1" t="s">
         <v>2044</v>
       </c>
@@ -17998,7 +18043,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:6">
       <c r="A649" s="1" t="s">
         <v>2046</v>
       </c>
@@ -18015,7 +18060,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:6">
       <c r="A650" s="1" t="s">
         <v>2050</v>
       </c>
@@ -18032,7 +18077,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:6">
       <c r="A651" s="1" t="s">
         <v>2055</v>
       </c>
@@ -18049,7 +18094,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:6">
       <c r="A652" s="1" t="s">
         <v>2059</v>
       </c>
@@ -18066,7 +18111,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:6">
       <c r="A653" s="1" t="s">
         <v>2061</v>
       </c>
@@ -18081,7 +18126,7 @@
       </c>
       <c r="F653" s="2"/>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:6">
       <c r="A654" s="1" t="s">
         <v>2063</v>
       </c>
@@ -18096,7 +18141,7 @@
       </c>
       <c r="F654" s="2"/>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:6">
       <c r="A655" s="1" t="s">
         <v>2065</v>
       </c>
@@ -18113,7 +18158,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:6">
       <c r="A656" s="1" t="s">
         <v>2068</v>
       </c>
@@ -18130,7 +18175,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:6">
       <c r="A657" s="1" t="s">
         <v>2071</v>
       </c>
@@ -18147,7 +18192,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:6">
       <c r="A658" s="1" t="s">
         <v>2074</v>
       </c>
@@ -18164,7 +18209,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:6">
       <c r="A659" s="1" t="s">
         <v>2076</v>
       </c>
@@ -18181,7 +18226,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:6">
       <c r="A660" s="1" t="s">
         <v>2078</v>
       </c>
@@ -18198,7 +18243,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:6">
       <c r="A661" s="1" t="s">
         <v>2080</v>
       </c>
@@ -18215,7 +18260,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:6">
       <c r="A662" s="1" t="s">
         <v>2082</v>
       </c>
@@ -18232,7 +18277,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:6">
       <c r="A663" s="1" t="s">
         <v>2084</v>
       </c>
@@ -18249,7 +18294,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:6">
       <c r="A664" s="1" t="s">
         <v>2087</v>
       </c>
@@ -18266,7 +18311,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:6">
       <c r="A665" s="1" t="s">
         <v>2090</v>
       </c>
@@ -18283,7 +18328,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:6">
       <c r="A666" s="1" t="s">
         <v>2093</v>
       </c>
@@ -18300,7 +18345,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:6">
       <c r="A667" s="1" t="s">
         <v>2096</v>
       </c>
@@ -18317,7 +18362,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:6">
       <c r="A668" s="1" t="s">
         <v>2099</v>
       </c>
@@ -18334,7 +18379,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:6">
       <c r="A669" s="1" t="s">
         <v>2102</v>
       </c>
@@ -18351,7 +18396,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:6">
       <c r="A670" s="1" t="s">
         <v>2105</v>
       </c>
@@ -18368,7 +18413,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:6">
       <c r="A671" s="1" t="s">
         <v>2108</v>
       </c>
@@ -18385,7 +18430,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:6">
       <c r="A672" s="1" t="s">
         <v>2110</v>
       </c>
@@ -18402,7 +18447,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:6">
       <c r="A673" s="1" t="s">
         <v>2112</v>
       </c>
@@ -18419,7 +18464,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:6">
       <c r="A674" s="1" t="s">
         <v>2114</v>
       </c>
@@ -18436,7 +18481,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:6">
       <c r="A675" s="1" t="s">
         <v>2116</v>
       </c>
@@ -18453,7 +18498,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:6">
       <c r="A676" s="1" t="s">
         <v>2118</v>
       </c>
@@ -18470,7 +18515,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:6">
       <c r="A677" s="1" t="s">
         <v>2120</v>
       </c>
@@ -18487,7 +18532,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:6">
       <c r="A678" s="1" t="s">
         <v>2123</v>
       </c>
@@ -18504,7 +18549,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:6">
       <c r="A679" s="1" t="s">
         <v>2126</v>
       </c>
@@ -18521,7 +18566,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:6">
       <c r="A680" s="1" t="s">
         <v>2129</v>
       </c>
@@ -18538,7 +18583,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:6">
       <c r="A681" s="1" t="s">
         <v>2132</v>
       </c>
@@ -18555,7 +18600,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:6">
       <c r="A682" s="1" t="s">
         <v>2135</v>
       </c>
@@ -18572,7 +18617,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:6">
       <c r="A683" s="1" t="s">
         <v>2245</v>
       </c>
@@ -18592,7 +18637,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:6">
       <c r="A684" s="1" t="s">
         <v>2244</v>
       </c>
@@ -18612,7 +18657,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:6">
       <c r="A685" s="1" t="s">
         <v>2243</v>
       </c>
@@ -18632,7 +18677,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:6">
       <c r="A686" s="1" t="s">
         <v>2242</v>
       </c>
@@ -18658,7 +18703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635390FB-5FCB-417F-BFA2-6EBCAA769A3E}">
   <dimension ref="A1:F328"/>
   <sheetViews>
@@ -18666,7 +18711,7 @@
       <selection activeCell="F325" sqref="F325:F328"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="71.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
@@ -18677,7 +18722,7 @@
     <col min="7" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18697,7 +18742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>101</v>
       </c>
@@ -18714,7 +18759,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
@@ -18731,7 +18776,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>110</v>
       </c>
@@ -18748,7 +18793,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>114</v>
       </c>
@@ -18765,7 +18810,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>118</v>
       </c>
@@ -18782,7 +18827,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>123</v>
       </c>
@@ -18799,7 +18844,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>139</v>
       </c>
@@ -18816,7 +18861,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>146</v>
       </c>
@@ -18833,7 +18878,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>150</v>
       </c>
@@ -18850,7 +18895,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>154</v>
       </c>
@@ -18867,7 +18912,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>158</v>
       </c>
@@ -18884,7 +18929,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>159</v>
       </c>
@@ -18901,7 +18946,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>162</v>
       </c>
@@ -18918,7 +18963,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>167</v>
       </c>
@@ -18935,7 +18980,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>171</v>
       </c>
@@ -18952,7 +18997,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>175</v>
       </c>
@@ -18969,7 +19014,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>179</v>
       </c>
@@ -18986,7 +19031,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>183</v>
       </c>
@@ -19003,7 +19048,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>187</v>
       </c>
@@ -19020,7 +19065,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>191</v>
       </c>
@@ -19037,7 +19082,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>194</v>
       </c>
@@ -19054,7 +19099,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>198</v>
       </c>
@@ -19071,7 +19116,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>199</v>
       </c>
@@ -19088,7 +19133,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>202</v>
       </c>
@@ -19105,7 +19150,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>206</v>
       </c>
@@ -19122,7 +19167,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>210</v>
       </c>
@@ -19139,7 +19184,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>214</v>
       </c>
@@ -19156,7 +19201,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>218</v>
       </c>
@@ -19173,7 +19218,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>222</v>
       </c>
@@ -19190,7 +19235,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>226</v>
       </c>
@@ -19207,7 +19252,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>230</v>
       </c>
@@ -19224,7 +19269,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>233</v>
       </c>
@@ -19241,7 +19286,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>237</v>
       </c>
@@ -19258,7 +19303,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>238</v>
       </c>
@@ -19275,7 +19320,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>241</v>
       </c>
@@ -19292,7 +19337,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>245</v>
       </c>
@@ -19309,7 +19354,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>249</v>
       </c>
@@ -19326,7 +19371,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>253</v>
       </c>
@@ -19343,7 +19388,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>257</v>
       </c>
@@ -19360,7 +19405,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>261</v>
       </c>
@@ -19377,7 +19422,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>265</v>
       </c>
@@ -19394,7 +19439,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>269</v>
       </c>
@@ -19411,7 +19456,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>272</v>
       </c>
@@ -19428,7 +19473,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>276</v>
       </c>
@@ -19445,7 +19490,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>277</v>
       </c>
@@ -19462,7 +19507,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>280</v>
       </c>
@@ -19479,7 +19524,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>284</v>
       </c>
@@ -19496,7 +19541,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>288</v>
       </c>
@@ -19513,7 +19558,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>292</v>
       </c>
@@ -19530,7 +19575,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>296</v>
       </c>
@@ -19547,7 +19592,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>300</v>
       </c>
@@ -19564,7 +19609,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>304</v>
       </c>
@@ -19581,7 +19626,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>308</v>
       </c>
@@ -19598,7 +19643,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>311</v>
       </c>
@@ -19615,7 +19660,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
         <v>315</v>
       </c>
@@ -19632,7 +19677,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
         <v>316</v>
       </c>
@@ -19649,7 +19694,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>319</v>
       </c>
@@ -19666,7 +19711,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
         <v>323</v>
       </c>
@@ -19683,7 +19728,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>327</v>
       </c>
@@ -19700,7 +19745,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
         <v>331</v>
       </c>
@@ -19717,7 +19762,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
         <v>335</v>
       </c>
@@ -19734,7 +19779,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
         <v>339</v>
       </c>
@@ -19751,7 +19796,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -19768,7 +19813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
         <v>11</v>
       </c>
@@ -19785,7 +19830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
         <v>15</v>
       </c>
@@ -19802,7 +19847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
         <v>19</v>
       </c>
@@ -19819,7 +19864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
         <v>343</v>
       </c>
@@ -19836,7 +19881,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
         <v>347</v>
       </c>
@@ -19853,7 +19898,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
         <v>350</v>
       </c>
@@ -19870,7 +19915,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
         <v>354</v>
       </c>
@@ -19887,7 +19932,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
         <v>355</v>
       </c>
@@ -19904,7 +19949,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
         <v>358</v>
       </c>
@@ -19921,7 +19966,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
         <v>362</v>
       </c>
@@ -19938,7 +19983,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
         <v>366</v>
       </c>
@@ -19955,7 +20000,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
         <v>370</v>
       </c>
@@ -19972,7 +20017,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
         <v>374</v>
       </c>
@@ -19989,7 +20034,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
         <v>378</v>
       </c>
@@ -20006,7 +20051,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
         <v>382</v>
       </c>
@@ -20023,7 +20068,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
         <v>386</v>
       </c>
@@ -20040,7 +20085,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
         <v>389</v>
       </c>
@@ -20057,7 +20102,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
         <v>393</v>
       </c>
@@ -20074,7 +20119,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
         <v>394</v>
       </c>
@@ -20091,7 +20136,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
         <v>397</v>
       </c>
@@ -20108,7 +20153,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
         <v>401</v>
       </c>
@@ -20125,7 +20170,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
         <v>405</v>
       </c>
@@ -20142,7 +20187,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
         <v>409</v>
       </c>
@@ -20159,7 +20204,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
         <v>413</v>
       </c>
@@ -20176,7 +20221,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
         <v>417</v>
       </c>
@@ -20193,7 +20238,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
         <v>421</v>
       </c>
@@ -20210,7 +20255,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
         <v>425</v>
       </c>
@@ -20227,7 +20272,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
         <v>428</v>
       </c>
@@ -20244,7 +20289,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
         <v>432</v>
       </c>
@@ -20261,7 +20306,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
         <v>433</v>
       </c>
@@ -20278,7 +20323,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
         <v>436</v>
       </c>
@@ -20295,7 +20340,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
         <v>440</v>
       </c>
@@ -20312,7 +20357,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
         <v>444</v>
       </c>
@@ -20329,7 +20374,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
         <v>448</v>
       </c>
@@ -20346,7 +20391,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
         <v>452</v>
       </c>
@@ -20363,7 +20408,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
         <v>456</v>
       </c>
@@ -20380,7 +20425,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
         <v>460</v>
       </c>
@@ -20397,7 +20442,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
         <v>464</v>
       </c>
@@ -20414,7 +20459,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
         <v>468</v>
       </c>
@@ -20431,7 +20476,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
         <v>472</v>
       </c>
@@ -20448,7 +20493,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
         <v>475</v>
       </c>
@@ -20465,7 +20510,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
         <v>23</v>
       </c>
@@ -20482,7 +20527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
         <v>27</v>
       </c>
@@ -20499,7 +20544,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
         <v>479</v>
       </c>
@@ -20516,7 +20561,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
         <v>480</v>
       </c>
@@ -20533,7 +20578,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
         <v>483</v>
       </c>
@@ -20550,7 +20595,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
         <v>487</v>
       </c>
@@ -20567,7 +20612,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
         <v>491</v>
       </c>
@@ -20584,7 +20629,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
         <v>495</v>
       </c>
@@ -20601,7 +20646,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
         <v>499</v>
       </c>
@@ -20618,7 +20663,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
         <v>503</v>
       </c>
@@ -20635,7 +20680,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
         <v>31</v>
       </c>
@@ -20652,7 +20697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
         <v>34</v>
       </c>
@@ -20669,7 +20714,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
         <v>507</v>
       </c>
@@ -20686,7 +20731,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
         <v>511</v>
       </c>
@@ -20703,7 +20748,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
         <v>514</v>
       </c>
@@ -20720,7 +20765,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
         <v>518</v>
       </c>
@@ -20737,7 +20782,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
         <v>519</v>
       </c>
@@ -20754,7 +20799,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
         <v>522</v>
       </c>
@@ -20771,7 +20816,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6">
       <c r="A124" s="1" t="s">
         <v>526</v>
       </c>
@@ -20788,7 +20833,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6">
       <c r="A125" s="1" t="s">
         <v>530</v>
       </c>
@@ -20805,7 +20850,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6">
       <c r="A126" s="1" t="s">
         <v>534</v>
       </c>
@@ -20822,7 +20867,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6">
       <c r="A127" s="1" t="s">
         <v>538</v>
       </c>
@@ -20839,7 +20884,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6">
       <c r="A128" s="1" t="s">
         <v>542</v>
       </c>
@@ -20856,7 +20901,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6">
       <c r="A129" s="1" t="s">
         <v>546</v>
       </c>
@@ -20873,7 +20918,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6">
       <c r="A130" s="1" t="s">
         <v>550</v>
       </c>
@@ -20890,7 +20935,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6">
       <c r="A131" s="1" t="s">
         <v>553</v>
       </c>
@@ -20907,7 +20952,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6">
       <c r="A132" s="1" t="s">
         <v>557</v>
       </c>
@@ -20924,7 +20969,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6">
       <c r="A133" s="1" t="s">
         <v>558</v>
       </c>
@@ -20941,7 +20986,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6">
       <c r="A134" s="1" t="s">
         <v>561</v>
       </c>
@@ -20958,7 +21003,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6">
       <c r="A135" s="1" t="s">
         <v>565</v>
       </c>
@@ -20975,7 +21020,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
         <v>569</v>
       </c>
@@ -20992,7 +21037,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6">
       <c r="A137" s="1" t="s">
         <v>573</v>
       </c>
@@ -21009,7 +21054,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6">
       <c r="A138" s="1" t="s">
         <v>577</v>
       </c>
@@ -21026,7 +21071,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6">
       <c r="A139" s="1" t="s">
         <v>581</v>
       </c>
@@ -21043,7 +21088,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6">
       <c r="A140" s="1" t="s">
         <v>585</v>
       </c>
@@ -21060,7 +21105,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
         <v>589</v>
       </c>
@@ -21077,7 +21122,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6">
       <c r="A142" s="1" t="s">
         <v>592</v>
       </c>
@@ -21094,7 +21139,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6">
       <c r="A143" s="1" t="s">
         <v>596</v>
       </c>
@@ -21111,7 +21156,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6">
       <c r="A144" s="1" t="s">
         <v>597</v>
       </c>
@@ -21128,7 +21173,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6">
       <c r="A145" s="1" t="s">
         <v>600</v>
       </c>
@@ -21145,7 +21190,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6">
       <c r="A146" s="1" t="s">
         <v>604</v>
       </c>
@@ -21162,7 +21207,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
         <v>608</v>
       </c>
@@ -21179,7 +21224,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
         <v>612</v>
       </c>
@@ -21196,7 +21241,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6">
       <c r="A149" s="1" t="s">
         <v>616</v>
       </c>
@@ -21213,7 +21258,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6">
       <c r="A150" s="1" t="s">
         <v>620</v>
       </c>
@@ -21230,7 +21275,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6">
       <c r="A151" s="1" t="s">
         <v>624</v>
       </c>
@@ -21247,7 +21292,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6">
       <c r="A152" s="1" t="s">
         <v>628</v>
       </c>
@@ -21264,7 +21309,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6">
       <c r="A153" s="1" t="s">
         <v>631</v>
       </c>
@@ -21281,7 +21326,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6">
       <c r="A154" s="1" t="s">
         <v>635</v>
       </c>
@@ -21298,7 +21343,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6">
       <c r="A155" s="1" t="s">
         <v>636</v>
       </c>
@@ -21315,7 +21360,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6">
       <c r="A156" s="1" t="s">
         <v>639</v>
       </c>
@@ -21332,7 +21377,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6">
       <c r="A157" s="1" t="s">
         <v>643</v>
       </c>
@@ -21349,7 +21394,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6">
       <c r="A158" s="1" t="s">
         <v>647</v>
       </c>
@@ -21366,7 +21411,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6">
       <c r="A159" s="1" t="s">
         <v>651</v>
       </c>
@@ -21383,7 +21428,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6">
       <c r="A160" s="1" t="s">
         <v>655</v>
       </c>
@@ -21400,7 +21445,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6">
       <c r="A161" s="1" t="s">
         <v>659</v>
       </c>
@@ -21417,7 +21462,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6">
       <c r="A162" s="1" t="s">
         <v>693</v>
       </c>
@@ -21434,7 +21479,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6">
       <c r="A163" s="1" t="s">
         <v>698</v>
       </c>
@@ -21451,7 +21496,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6">
       <c r="A164" s="1" t="s">
         <v>702</v>
       </c>
@@ -21468,7 +21513,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6">
       <c r="A165" s="1" t="s">
         <v>706</v>
       </c>
@@ -21485,7 +21530,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6">
       <c r="A166" s="1" t="s">
         <v>710</v>
       </c>
@@ -21502,7 +21547,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6">
       <c r="A167" s="1" t="s">
         <v>712</v>
       </c>
@@ -21519,7 +21564,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6">
       <c r="A168" s="1" t="s">
         <v>713</v>
       </c>
@@ -21536,7 +21581,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6">
       <c r="A169" s="1" t="s">
         <v>716</v>
       </c>
@@ -21553,7 +21598,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6">
       <c r="A170" s="1" t="s">
         <v>720</v>
       </c>
@@ -21570,7 +21615,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6">
       <c r="A171" s="1" t="s">
         <v>724</v>
       </c>
@@ -21587,7 +21632,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6">
       <c r="A172" s="1" t="s">
         <v>728</v>
       </c>
@@ -21604,7 +21649,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6">
       <c r="A173" s="1" t="s">
         <v>732</v>
       </c>
@@ -21621,7 +21666,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6">
       <c r="A174" s="1" t="s">
         <v>736</v>
       </c>
@@ -21638,7 +21683,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6">
       <c r="A175" s="1" t="s">
         <v>740</v>
       </c>
@@ -21655,7 +21700,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:6">
       <c r="A176" s="1" t="s">
         <v>744</v>
       </c>
@@ -21672,7 +21717,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:6">
       <c r="A177" s="1" t="s">
         <v>747</v>
       </c>
@@ -21689,7 +21734,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:6">
       <c r="A178" s="1" t="s">
         <v>751</v>
       </c>
@@ -21706,7 +21751,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:6">
       <c r="A179" s="1" t="s">
         <v>752</v>
       </c>
@@ -21723,7 +21768,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:6">
       <c r="A180" s="1" t="s">
         <v>755</v>
       </c>
@@ -21740,7 +21785,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:6">
       <c r="A181" s="1" t="s">
         <v>759</v>
       </c>
@@ -21757,7 +21802,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:6">
       <c r="A182" s="1" t="s">
         <v>763</v>
       </c>
@@ -21774,7 +21819,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6">
       <c r="A183" s="1" t="s">
         <v>767</v>
       </c>
@@ -21791,7 +21836,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:6">
       <c r="A184" s="1" t="s">
         <v>771</v>
       </c>
@@ -21808,7 +21853,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:6">
       <c r="A185" s="1" t="s">
         <v>775</v>
       </c>
@@ -21825,7 +21870,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:6">
       <c r="A186" s="1" t="s">
         <v>779</v>
       </c>
@@ -21842,7 +21887,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:6">
       <c r="A187" s="1" t="s">
         <v>783</v>
       </c>
@@ -21859,7 +21904,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:6">
       <c r="A188" s="1" t="s">
         <v>786</v>
       </c>
@@ -21876,7 +21921,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:6">
       <c r="A189" s="1" t="s">
         <v>790</v>
       </c>
@@ -21893,7 +21938,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:6">
       <c r="A190" s="1" t="s">
         <v>791</v>
       </c>
@@ -21910,7 +21955,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:6">
       <c r="A191" s="1" t="s">
         <v>794</v>
       </c>
@@ -21927,7 +21972,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:6">
       <c r="A192" s="1" t="s">
         <v>798</v>
       </c>
@@ -21944,7 +21989,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:6">
       <c r="A193" s="1" t="s">
         <v>802</v>
       </c>
@@ -21961,7 +22006,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:6">
       <c r="A194" s="1" t="s">
         <v>806</v>
       </c>
@@ -21978,7 +22023,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:6">
       <c r="A195" s="1" t="s">
         <v>810</v>
       </c>
@@ -21995,7 +22040,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:6">
       <c r="A196" s="1" t="s">
         <v>814</v>
       </c>
@@ -22012,7 +22057,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:6">
       <c r="A197" s="1" t="s">
         <v>818</v>
       </c>
@@ -22029,7 +22074,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:6">
       <c r="A198" s="1" t="s">
         <v>822</v>
       </c>
@@ -22046,7 +22091,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:6">
       <c r="A199" s="1" t="s">
         <v>825</v>
       </c>
@@ -22063,7 +22108,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:6">
       <c r="A200" s="1" t="s">
         <v>829</v>
       </c>
@@ -22080,7 +22125,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:6">
       <c r="A201" s="1" t="s">
         <v>830</v>
       </c>
@@ -22097,7 +22142,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:6">
       <c r="A202" s="1" t="s">
         <v>833</v>
       </c>
@@ -22114,7 +22159,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:6">
       <c r="A203" s="1" t="s">
         <v>837</v>
       </c>
@@ -22131,7 +22176,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:6">
       <c r="A204" s="1" t="s">
         <v>841</v>
       </c>
@@ -22148,7 +22193,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:6">
       <c r="A205" s="1" t="s">
         <v>845</v>
       </c>
@@ -22165,7 +22210,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:6">
       <c r="A206" s="1" t="s">
         <v>849</v>
       </c>
@@ -22182,7 +22227,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:6">
       <c r="A207" s="1" t="s">
         <v>853</v>
       </c>
@@ -22199,7 +22244,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:6">
       <c r="A208" s="1" t="s">
         <v>857</v>
       </c>
@@ -22216,7 +22261,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:6">
       <c r="A209" s="1" t="s">
         <v>861</v>
       </c>
@@ -22233,7 +22278,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:6">
       <c r="A210" s="1" t="s">
         <v>864</v>
       </c>
@@ -22250,7 +22295,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:6">
       <c r="A211" s="1" t="s">
         <v>868</v>
       </c>
@@ -22267,7 +22312,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:6">
       <c r="A212" s="1" t="s">
         <v>869</v>
       </c>
@@ -22284,7 +22329,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:6">
       <c r="A213" s="1" t="s">
         <v>872</v>
       </c>
@@ -22301,7 +22346,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:6">
       <c r="A214" s="1" t="s">
         <v>876</v>
       </c>
@@ -22318,7 +22363,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:6">
       <c r="A215" s="1" t="s">
         <v>880</v>
       </c>
@@ -22335,7 +22380,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:6">
       <c r="A216" s="1" t="s">
         <v>884</v>
       </c>
@@ -22352,7 +22397,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:6">
       <c r="A217" s="1" t="s">
         <v>888</v>
       </c>
@@ -22369,7 +22414,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:6">
       <c r="A218" s="1" t="s">
         <v>892</v>
       </c>
@@ -22386,7 +22431,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:6">
       <c r="A219" s="1" t="s">
         <v>896</v>
       </c>
@@ -22403,7 +22448,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:6">
       <c r="A220" s="1" t="s">
         <v>900</v>
       </c>
@@ -22420,7 +22465,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:6">
       <c r="A221" s="1" t="s">
         <v>904</v>
       </c>
@@ -22437,7 +22482,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:6">
       <c r="A222" s="1" t="s">
         <v>908</v>
       </c>
@@ -22454,7 +22499,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:6">
       <c r="A223" s="1" t="s">
         <v>912</v>
       </c>
@@ -22471,7 +22516,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:6">
       <c r="A224" s="1" t="s">
         <v>916</v>
       </c>
@@ -22488,7 +22533,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:6">
       <c r="A225" s="1" t="s">
         <v>920</v>
       </c>
@@ -22505,7 +22550,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:6">
       <c r="A226" s="1" t="s">
         <v>924</v>
       </c>
@@ -22522,7 +22567,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:6">
       <c r="A227" s="1" t="s">
         <v>928</v>
       </c>
@@ -22539,7 +22584,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:6">
       <c r="A228" s="1" t="s">
         <v>932</v>
       </c>
@@ -22556,7 +22601,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:6">
       <c r="A229" s="1" t="s">
         <v>935</v>
       </c>
@@ -22573,7 +22618,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:6">
       <c r="A230" s="1" t="s">
         <v>939</v>
       </c>
@@ -22590,7 +22635,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:6">
       <c r="A231" s="1" t="s">
         <v>943</v>
       </c>
@@ -22607,7 +22652,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:6">
       <c r="A232" s="1" t="s">
         <v>947</v>
       </c>
@@ -22624,7 +22669,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:6">
       <c r="A233" s="1" t="s">
         <v>951</v>
       </c>
@@ -22641,7 +22686,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:6">
       <c r="A234" s="1" t="s">
         <v>953</v>
       </c>
@@ -22658,7 +22703,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:6">
       <c r="A235" s="1" t="s">
         <v>957</v>
       </c>
@@ -22675,7 +22720,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:6">
       <c r="A236" s="1" t="s">
         <v>961</v>
       </c>
@@ -22692,7 +22737,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:6">
       <c r="A237" s="1" t="s">
         <v>965</v>
       </c>
@@ -22709,7 +22754,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:6">
       <c r="A238" s="1" t="s">
         <v>969</v>
       </c>
@@ -22726,7 +22771,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:6">
       <c r="A239" s="1" t="s">
         <v>971</v>
       </c>
@@ -22743,7 +22788,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:6">
       <c r="A240" s="1" t="s">
         <v>975</v>
       </c>
@@ -22760,7 +22805,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:6">
       <c r="A241" s="1" t="s">
         <v>979</v>
       </c>
@@ -22777,7 +22822,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:6">
       <c r="A242" s="1" t="s">
         <v>982</v>
       </c>
@@ -22794,7 +22839,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:6">
       <c r="A243" s="1" t="s">
         <v>985</v>
       </c>
@@ -22811,7 +22856,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:6">
       <c r="A244" s="1" t="s">
         <v>989</v>
       </c>
@@ -22828,7 +22873,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:6">
       <c r="A245" s="1" t="s">
         <v>993</v>
       </c>
@@ -22845,7 +22890,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:6">
       <c r="A246" s="1" t="s">
         <v>997</v>
       </c>
@@ -22862,7 +22907,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:6">
       <c r="A247" s="1" t="s">
         <v>999</v>
       </c>
@@ -22879,7 +22924,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:6">
       <c r="A248" s="1" t="s">
         <v>1001</v>
       </c>
@@ -22896,7 +22941,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:6">
       <c r="A249" s="1" t="s">
         <v>1005</v>
       </c>
@@ -22913,7 +22958,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:6">
       <c r="A250" s="1" t="s">
         <v>1009</v>
       </c>
@@ -22930,7 +22975,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:6">
       <c r="A251" s="1" t="s">
         <v>1013</v>
       </c>
@@ -22947,7 +22992,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:6">
       <c r="A252" s="1" t="s">
         <v>1017</v>
       </c>
@@ -22964,7 +23009,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:6">
       <c r="A253" s="1" t="s">
         <v>1021</v>
       </c>
@@ -22981,7 +23026,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:6">
       <c r="A254" s="1" t="s">
         <v>1023</v>
       </c>
@@ -22998,7 +23043,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:6">
       <c r="A255" s="1" t="s">
         <v>1025</v>
       </c>
@@ -23015,7 +23060,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:6">
       <c r="A256" s="1" t="s">
         <v>1028</v>
       </c>
@@ -23032,7 +23077,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:6">
       <c r="A257" s="1" t="s">
         <v>1032</v>
       </c>
@@ -23049,7 +23094,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:6">
       <c r="A258" s="1" t="s">
         <v>1036</v>
       </c>
@@ -23066,7 +23111,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:6">
       <c r="A259" s="1" t="s">
         <v>1040</v>
       </c>
@@ -23083,7 +23128,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:6">
       <c r="A260" s="1" t="s">
         <v>1044</v>
       </c>
@@ -23100,7 +23145,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:6">
       <c r="A261" s="1" t="s">
         <v>1046</v>
       </c>
@@ -23117,7 +23162,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:6">
       <c r="A262" s="1" t="s">
         <v>1048</v>
       </c>
@@ -23134,7 +23179,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:6">
       <c r="A263" s="1" t="s">
         <v>1051</v>
       </c>
@@ -23151,7 +23196,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:6">
       <c r="A264" s="1" t="s">
         <v>1055</v>
       </c>
@@ -23168,7 +23213,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:6">
       <c r="A265" s="1" t="s">
         <v>1784</v>
       </c>
@@ -23185,7 +23230,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:6">
       <c r="A266" s="1" t="s">
         <v>1789</v>
       </c>
@@ -23202,7 +23247,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:6">
       <c r="A267" s="1" t="s">
         <v>1793</v>
       </c>
@@ -23219,7 +23264,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:6">
       <c r="A268" s="1" t="s">
         <v>1797</v>
       </c>
@@ -23236,7 +23281,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:6">
       <c r="A269" s="1" t="s">
         <v>1800</v>
       </c>
@@ -23253,7 +23298,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:6">
       <c r="A270" s="1" t="s">
         <v>1805</v>
       </c>
@@ -23270,7 +23315,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:6">
       <c r="A271" s="1" t="s">
         <v>1809</v>
       </c>
@@ -23287,7 +23332,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:6">
       <c r="A272" s="1" t="s">
         <v>1813</v>
       </c>
@@ -23304,7 +23349,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:6">
       <c r="A273" s="1" t="s">
         <v>1817</v>
       </c>
@@ -23321,7 +23366,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:6">
       <c r="A274" s="1" t="s">
         <v>1821</v>
       </c>
@@ -23338,7 +23383,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:6">
       <c r="A275" s="1" t="s">
         <v>1825</v>
       </c>
@@ -23355,7 +23400,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:6">
       <c r="A276" s="1" t="s">
         <v>1829</v>
       </c>
@@ -23372,7 +23417,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:6">
       <c r="A277" s="1" t="s">
         <v>1833</v>
       </c>
@@ -23389,7 +23434,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:6">
       <c r="A278" s="1" t="s">
         <v>1837</v>
       </c>
@@ -23406,7 +23451,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:6">
       <c r="A279" s="1" t="s">
         <v>1841</v>
       </c>
@@ -23423,7 +23468,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:6">
       <c r="A280" s="1" t="s">
         <v>1845</v>
       </c>
@@ -23440,7 +23485,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:6">
       <c r="A281" s="1" t="s">
         <v>1849</v>
       </c>
@@ -23457,7 +23502,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:6">
       <c r="A282" s="1" t="s">
         <v>1853</v>
       </c>
@@ -23474,7 +23519,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:6">
       <c r="A283" s="1" t="s">
         <v>1857</v>
       </c>
@@ -23491,7 +23536,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:6">
       <c r="A284" s="1" t="s">
         <v>1861</v>
       </c>
@@ -23508,7 +23553,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:6">
       <c r="A285" s="1" t="s">
         <v>1889</v>
       </c>
@@ -23525,7 +23570,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:6">
       <c r="A286" s="1" t="s">
         <v>1894</v>
       </c>
@@ -23542,7 +23587,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:6">
       <c r="A287" s="1" t="s">
         <v>1898</v>
       </c>
@@ -23559,7 +23604,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:6">
       <c r="A288" s="1" t="s">
         <v>1902</v>
       </c>
@@ -23576,7 +23621,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:6">
       <c r="A289" s="1" t="s">
         <v>1906</v>
       </c>
@@ -23593,7 +23638,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:6">
       <c r="A290" s="1" t="s">
         <v>1910</v>
       </c>
@@ -23610,7 +23655,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:6">
       <c r="A291" s="1" t="s">
         <v>1913</v>
       </c>
@@ -23627,7 +23672,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:6">
       <c r="A292" s="1" t="s">
         <v>1917</v>
       </c>
@@ -23644,7 +23689,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:6">
       <c r="A293" s="1" t="s">
         <v>1921</v>
       </c>
@@ -23661,7 +23706,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:6">
       <c r="A294" s="1" t="s">
         <v>1925</v>
       </c>
@@ -23678,7 +23723,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:6">
       <c r="A295" s="1" t="s">
         <v>1929</v>
       </c>
@@ -23695,7 +23740,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:6">
       <c r="A296" s="1" t="s">
         <v>1933</v>
       </c>
@@ -23712,7 +23757,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:6">
       <c r="A297" s="1" t="s">
         <v>1937</v>
       </c>
@@ -23729,7 +23774,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:6">
       <c r="A298" s="1" t="s">
         <v>1941</v>
       </c>
@@ -23746,7 +23791,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:6">
       <c r="A299" s="1" t="s">
         <v>1945</v>
       </c>
@@ -23763,7 +23808,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:6">
       <c r="A300" s="1" t="s">
         <v>1949</v>
       </c>
@@ -23780,7 +23825,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:6">
       <c r="A301" s="1" t="s">
         <v>1953</v>
       </c>
@@ -23797,7 +23842,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:6">
       <c r="A302" s="1" t="s">
         <v>1957</v>
       </c>
@@ -23814,7 +23859,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:6">
       <c r="A303" s="1" t="s">
         <v>1961</v>
       </c>
@@ -23831,7 +23876,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:6">
       <c r="A304" s="1" t="s">
         <v>1965</v>
       </c>
@@ -23848,7 +23893,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:6">
       <c r="A305" s="1" t="s">
         <v>1969</v>
       </c>
@@ -23865,7 +23910,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:6">
       <c r="A306" s="1" t="s">
         <v>1973</v>
       </c>
@@ -23882,7 +23927,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:6">
       <c r="A307" s="1" t="s">
         <v>1977</v>
       </c>
@@ -23899,7 +23944,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:6">
       <c r="A308" s="1" t="s">
         <v>1981</v>
       </c>
@@ -23916,7 +23961,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:6">
       <c r="A309" s="1" t="s">
         <v>1985</v>
       </c>
@@ -23933,7 +23978,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:6">
       <c r="A310" s="1" t="s">
         <v>1989</v>
       </c>
@@ -23950,7 +23995,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:6">
       <c r="A311" s="1" t="s">
         <v>1993</v>
       </c>
@@ -23967,7 +24012,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:6">
       <c r="A312" s="1" t="s">
         <v>1997</v>
       </c>
@@ -23984,7 +24029,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:6">
       <c r="A313" s="1" t="s">
         <v>2001</v>
       </c>
@@ -24001,7 +24046,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:6">
       <c r="A314" s="1" t="s">
         <v>2005</v>
       </c>
@@ -24018,7 +24063,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:6">
       <c r="A315" s="1" t="s">
         <v>2158</v>
       </c>
@@ -24035,7 +24080,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:6">
       <c r="A316" s="1" t="s">
         <v>2155</v>
       </c>
@@ -24052,7 +24097,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:6">
       <c r="A317" s="1" t="s">
         <v>2033</v>
       </c>
@@ -24069,7 +24114,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:6">
       <c r="A318" s="1" t="s">
         <v>2036</v>
       </c>
@@ -24086,7 +24131,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:6">
       <c r="A319" s="1" t="s">
         <v>2040</v>
       </c>
@@ -24103,7 +24148,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:6">
       <c r="A320" s="1" t="s">
         <v>2044</v>
       </c>
@@ -24120,7 +24165,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:6">
       <c r="A321" s="1" t="s">
         <v>2046</v>
       </c>
@@ -24137,7 +24182,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:6">
       <c r="A322" s="1" t="s">
         <v>2050</v>
       </c>
@@ -24154,7 +24199,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:6">
       <c r="A323" s="1" t="s">
         <v>2055</v>
       </c>
@@ -24171,7 +24216,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:6">
       <c r="A324" s="1" t="s">
         <v>2059</v>
       </c>
@@ -24188,7 +24233,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:6">
       <c r="A325" s="1" t="s">
         <v>2245</v>
       </c>
@@ -24208,7 +24253,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:6">
       <c r="A326" s="1" t="s">
         <v>2244</v>
       </c>
@@ -24228,7 +24273,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:6">
       <c r="A327" s="1" t="s">
         <v>2243</v>
       </c>
@@ -24248,7 +24293,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:6">
       <c r="A328" s="1" t="s">
         <v>2242</v>
       </c>
